--- a/question_select/classification_of_knowledge_types.xlsx
+++ b/question_select/classification_of_knowledge_types.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20349"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4203ADC-BD63-40DE-81A4-11C6A103205D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E615C9AB-9A07-44B1-A78F-0CB020F37CFC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">classification_knowledge_type!$E$1:$E$258</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">classification_knowledge_type!$A$1:$G$258</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet3!$H$1:$H$269</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3838" uniqueCount="894">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3825" uniqueCount="883">
   <si>
     <t>id</t>
   </si>
@@ -3075,10 +3075,6 @@
   </si>
   <si>
     <t>Differences between HashMap and Hashtable?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>template in SO</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -3317,10 +3313,6 @@
     <t>Functionality Comparison</t>
   </si>
   <si>
-    <t>Functionality Comparison=13</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Characteristic Specification</t>
   </si>
   <si>
@@ -3330,10 +3322,6 @@
     <t>Constraint</t>
   </si>
   <si>
-    <t>Constraint=16</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Concept Classification</t>
   </si>
   <si>
@@ -3344,18 +3332,6 @@
     <t>Membership</t>
   </si>
   <si>
-    <t>Functionality Specification</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Concept Classification</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Characteristic Comparison</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Characteristic Specification</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3368,39 +3344,18 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Membership=4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Functionality Specification=116</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Characteristic Specification=39</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Concept Classification=39</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Characteristic Comparison=28</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Functionality Comparison</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Constraint</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Membership</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>answer point</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Behavior Specification</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Behavior Specification</t>
+  </si>
+  <si>
+    <t>Statement Type</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3865,7 +3820,7 @@
     <col min="4" max="4" width="7.875" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="56.75" customWidth="1"/>
-    <col min="7" max="7" width="33.625" customWidth="1"/>
+    <col min="7" max="7" width="29.75" customWidth="1"/>
     <col min="9" max="9" width="42.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3886,10 +3841,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>893</v>
+        <v>879</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>819</v>
+        <v>882</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -3909,10 +3864,10 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="G2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -3932,10 +3887,10 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G3" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -3958,7 +3913,7 @@
         <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3981,7 +3936,7 @@
         <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -4004,7 +3959,7 @@
         <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -4024,10 +3979,10 @@
         <v>20</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="G7" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -4050,7 +4005,7 @@
         <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -4073,7 +4028,7 @@
         <v>33</v>
       </c>
       <c r="G9" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -4096,7 +4051,7 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -4116,10 +4071,10 @@
         <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="G11" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -4142,7 +4097,7 @@
         <v>42</v>
       </c>
       <c r="G12" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -4165,7 +4120,7 @@
         <v>47</v>
       </c>
       <c r="G13" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -4188,7 +4143,7 @@
         <v>53</v>
       </c>
       <c r="G14" t="s">
-        <v>882</v>
+        <v>870</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -4211,7 +4166,7 @@
         <v>55</v>
       </c>
       <c r="G15" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -4234,7 +4189,7 @@
         <v>58</v>
       </c>
       <c r="G16" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -4257,7 +4212,7 @@
         <v>62</v>
       </c>
       <c r="G17" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -4280,7 +4235,7 @@
         <v>765</v>
       </c>
       <c r="G18" t="s">
-        <v>882</v>
+        <v>870</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -4303,7 +4258,7 @@
         <v>766</v>
       </c>
       <c r="G19" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -4326,7 +4281,7 @@
         <v>71</v>
       </c>
       <c r="G20" t="s">
-        <v>891</v>
+        <v>872</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -4349,7 +4304,7 @@
         <v>74</v>
       </c>
       <c r="G21" t="s">
-        <v>882</v>
+        <v>870</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -4372,7 +4327,7 @@
         <v>77</v>
       </c>
       <c r="G22" t="s">
-        <v>882</v>
+        <v>870</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -4395,7 +4350,7 @@
         <v>78</v>
       </c>
       <c r="G23" t="s">
-        <v>891</v>
+        <v>872</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -4418,7 +4373,7 @@
         <v>80</v>
       </c>
       <c r="G24" t="s">
-        <v>891</v>
+        <v>872</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -4438,10 +4393,10 @@
         <v>20</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="G25" t="s">
-        <v>891</v>
+        <v>872</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -4464,7 +4419,7 @@
         <v>683</v>
       </c>
       <c r="G26" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -4487,7 +4442,7 @@
         <v>686</v>
       </c>
       <c r="G27" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -4510,7 +4465,7 @@
         <v>767</v>
       </c>
       <c r="G28" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -4533,7 +4488,7 @@
         <v>768</v>
       </c>
       <c r="G29" t="s">
-        <v>890</v>
+        <v>869</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -4556,7 +4511,7 @@
         <v>102</v>
       </c>
       <c r="G30" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -4579,7 +4534,7 @@
         <v>108</v>
       </c>
       <c r="G31" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -4602,7 +4557,7 @@
         <v>110</v>
       </c>
       <c r="G32" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -4625,7 +4580,7 @@
         <v>112</v>
       </c>
       <c r="G33" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -4648,7 +4603,7 @@
         <v>113</v>
       </c>
       <c r="G34" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -4671,7 +4626,7 @@
         <v>812</v>
       </c>
       <c r="G35" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -4691,10 +4646,10 @@
         <v>20</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="G36" t="s">
-        <v>882</v>
+        <v>870</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -4717,7 +4672,7 @@
         <v>811</v>
       </c>
       <c r="G37" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -4740,7 +4695,7 @@
         <v>122</v>
       </c>
       <c r="G38" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -4763,7 +4718,7 @@
         <v>769</v>
       </c>
       <c r="G39" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -4783,10 +4738,10 @@
         <v>11</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="G40" t="s">
-        <v>891</v>
+        <v>872</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -4809,7 +4764,7 @@
         <v>770</v>
       </c>
       <c r="G41" t="s">
-        <v>882</v>
+        <v>870</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -4829,10 +4784,10 @@
         <v>11</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="G42" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -4855,7 +4810,7 @@
         <v>133</v>
       </c>
       <c r="G43" t="s">
-        <v>882</v>
+        <v>870</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -4878,7 +4833,7 @@
         <v>136</v>
       </c>
       <c r="G44" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -4901,7 +4856,7 @@
         <v>139</v>
       </c>
       <c r="G45" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -4924,7 +4879,7 @@
         <v>771</v>
       </c>
       <c r="G46" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -4947,7 +4902,7 @@
         <v>772</v>
       </c>
       <c r="G47" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -4970,7 +4925,7 @@
         <v>146</v>
       </c>
       <c r="G48" t="s">
-        <v>882</v>
+        <v>870</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -4993,7 +4948,7 @@
         <v>148</v>
       </c>
       <c r="G49" t="s">
-        <v>882</v>
+        <v>870</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -5016,24 +4971,27 @@
         <v>693</v>
       </c>
       <c r="G50" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>20844735</v>
+        <v>2469244</v>
       </c>
       <c r="B51" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D51">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="E51" t="s">
         <v>11</v>
+      </c>
+      <c r="F51" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -5053,10 +5011,10 @@
         <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>695</v>
+        <v>773</v>
       </c>
       <c r="G52" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -5076,33 +5034,33 @@
         <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>773</v>
+        <v>157</v>
       </c>
       <c r="G53" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>2469244</v>
+        <v>1796275</v>
       </c>
       <c r="B54" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D54">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F54" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G54" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -5110,7 +5068,7 @@
         <v>1796275</v>
       </c>
       <c r="B55" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>159</v>
@@ -5122,33 +5080,33 @@
         <v>20</v>
       </c>
       <c r="F55" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G55" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>1796275</v>
+        <v>13112038</v>
       </c>
       <c r="B56" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D56">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="E56" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G56" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -5168,33 +5126,33 @@
         <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G57" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>13112038</v>
+        <v>8875680</v>
       </c>
       <c r="B58" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D58">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F58" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G58" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -5214,10 +5172,10 @@
         <v>20</v>
       </c>
       <c r="F59" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G59" t="s">
-        <v>882</v>
+        <v>870</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -5237,33 +5195,33 @@
         <v>20</v>
       </c>
       <c r="F60" t="s">
-        <v>176</v>
+        <v>827</v>
       </c>
       <c r="G60" t="s">
-        <v>882</v>
+        <v>870</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>8875680</v>
+        <v>141284</v>
       </c>
       <c r="B61" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="D61">
-        <v>43</v>
+        <v>431</v>
       </c>
       <c r="E61" t="s">
         <v>20</v>
       </c>
       <c r="F61" t="s">
-        <v>828</v>
+        <v>801</v>
       </c>
       <c r="G61" t="s">
-        <v>890</v>
+        <v>869</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
@@ -5283,10 +5241,10 @@
         <v>20</v>
       </c>
       <c r="F62" t="s">
-        <v>801</v>
+        <v>185</v>
       </c>
       <c r="G62" t="s">
-        <v>890</v>
+        <v>869</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
@@ -5306,33 +5264,33 @@
         <v>20</v>
       </c>
       <c r="F63" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G63" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>141284</v>
+        <v>7317579</v>
       </c>
       <c r="B64" t="s">
-        <v>181</v>
+        <v>774</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="D64">
-        <v>431</v>
+        <v>43</v>
       </c>
       <c r="E64" t="s">
         <v>20</v>
       </c>
       <c r="F64" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G64" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -5340,10 +5298,10 @@
         <v>7317579</v>
       </c>
       <c r="B65" t="s">
-        <v>774</v>
+        <v>188</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D65">
         <v>43</v>
@@ -5352,10 +5310,10 @@
         <v>20</v>
       </c>
       <c r="F65" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G65" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
@@ -5375,33 +5333,33 @@
         <v>20</v>
       </c>
       <c r="F66" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G66" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>7317579</v>
+        <v>10434736</v>
       </c>
       <c r="B67" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="D67">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="E67" t="s">
         <v>20</v>
       </c>
       <c r="F67" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="G67" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -5421,33 +5379,33 @@
         <v>20</v>
       </c>
       <c r="F68" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G68" t="s">
-        <v>882</v>
+        <v>870</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>10434736</v>
+        <v>15989309</v>
       </c>
       <c r="B69" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="D69">
         <v>19</v>
       </c>
       <c r="E69" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="G69" t="s">
-        <v>882</v>
+        <v>870</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -5467,10 +5425,10 @@
         <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G70" t="s">
-        <v>892</v>
+        <v>875</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -5489,11 +5447,11 @@
       <c r="E71" t="s">
         <v>11</v>
       </c>
-      <c r="F71" t="s">
-        <v>218</v>
+      <c r="F71" s="5" t="s">
+        <v>857</v>
       </c>
       <c r="G71" t="s">
-        <v>892</v>
+        <v>875</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -5501,7 +5459,7 @@
         <v>15989309</v>
       </c>
       <c r="B72" t="s">
-        <v>214</v>
+        <v>817</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>215</v>
@@ -5512,34 +5470,34 @@
       <c r="E72" t="s">
         <v>11</v>
       </c>
-      <c r="F72" s="5" t="s">
-        <v>858</v>
+      <c r="F72" t="s">
+        <v>828</v>
       </c>
       <c r="G72" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>15989309</v>
+        <v>28322833</v>
       </c>
       <c r="B73" t="s">
-        <v>817</v>
+        <v>224</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="D73">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F73" t="s">
-        <v>829</v>
+        <v>226</v>
       </c>
       <c r="G73" t="s">
-        <v>890</v>
+        <v>869</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -5558,34 +5516,34 @@
       <c r="E74" t="s">
         <v>20</v>
       </c>
-      <c r="F74" t="s">
-        <v>226</v>
+      <c r="F74" s="5" t="s">
+        <v>877</v>
       </c>
       <c r="G74" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>28322833</v>
+        <v>5102570</v>
       </c>
       <c r="B75" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="D75">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E75" t="s">
         <v>20</v>
       </c>
-      <c r="F75" s="5" t="s">
-        <v>883</v>
+      <c r="F75" t="s">
+        <v>778</v>
       </c>
       <c r="G75" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
@@ -5593,7 +5551,7 @@
         <v>5102570</v>
       </c>
       <c r="B76" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>232</v>
@@ -5605,33 +5563,33 @@
         <v>20</v>
       </c>
       <c r="F76" t="s">
-        <v>778</v>
+        <v>829</v>
       </c>
       <c r="G76" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>5102570</v>
+        <v>2986296</v>
       </c>
       <c r="B77" t="s">
-        <v>235</v>
+        <v>814</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="D77">
-        <v>31</v>
+        <v>313</v>
       </c>
       <c r="E77" t="s">
         <v>20</v>
       </c>
       <c r="F77" t="s">
-        <v>830</v>
+        <v>239</v>
       </c>
       <c r="G77" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
@@ -5639,7 +5597,7 @@
         <v>2986296</v>
       </c>
       <c r="B78" t="s">
-        <v>814</v>
+        <v>237</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>238</v>
@@ -5651,10 +5609,10 @@
         <v>20</v>
       </c>
       <c r="F78" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="G78" t="s">
-        <v>882</v>
+        <v>870</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
@@ -5662,7 +5620,7 @@
         <v>2986296</v>
       </c>
       <c r="B79" t="s">
-        <v>237</v>
+        <v>814</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>238</v>
@@ -5674,10 +5632,10 @@
         <v>20</v>
       </c>
       <c r="F79" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G79" t="s">
-        <v>882</v>
+        <v>870</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
@@ -5685,7 +5643,7 @@
         <v>2986296</v>
       </c>
       <c r="B80" t="s">
-        <v>814</v>
+        <v>237</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>238</v>
@@ -5697,33 +5655,33 @@
         <v>20</v>
       </c>
       <c r="F80" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G80" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>2986296</v>
+        <v>8249173</v>
       </c>
       <c r="B81" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="D81">
-        <v>313</v>
+        <v>52</v>
       </c>
       <c r="E81" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="G81" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
@@ -5743,21 +5701,21 @@
         <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="G82" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>8249173</v>
+        <v>35359112</v>
       </c>
       <c r="B83" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D83">
         <v>52</v>
@@ -5765,11 +5723,11 @@
       <c r="E83" t="s">
         <v>11</v>
       </c>
-      <c r="F83" t="s">
-        <v>251</v>
+      <c r="F83" s="5" t="s">
+        <v>255</v>
       </c>
       <c r="G83" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
@@ -5788,57 +5746,57 @@
       <c r="E84" t="s">
         <v>11</v>
       </c>
-      <c r="F84" s="5" t="s">
-        <v>255</v>
+      <c r="F84" s="7" t="s">
+        <v>257</v>
       </c>
       <c r="G84" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>35359112</v>
+        <v>25593768</v>
       </c>
       <c r="B85" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="D85">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="E85" t="s">
         <v>11</v>
       </c>
-      <c r="F85" s="7" t="s">
-        <v>257</v>
+      <c r="F85" t="s">
+        <v>261</v>
       </c>
       <c r="G85" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>25593768</v>
+        <v>45231351</v>
       </c>
       <c r="B86" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D86">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E86" t="s">
         <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>261</v>
+        <v>830</v>
       </c>
       <c r="G86" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
@@ -5861,7 +5819,7 @@
         <v>831</v>
       </c>
       <c r="G87" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
@@ -5881,56 +5839,56 @@
         <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>832</v>
+        <v>268</v>
       </c>
       <c r="G88" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>45231351</v>
+        <v>23379623</v>
       </c>
       <c r="B89" t="s">
-        <v>262</v>
+        <v>860</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="D89">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E89" t="s">
         <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>268</v>
+        <v>861</v>
       </c>
       <c r="G89" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>23379623</v>
+        <v>2504141</v>
       </c>
       <c r="B90" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D90">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="E90" t="s">
         <v>11</v>
       </c>
-      <c r="F90" t="s">
-        <v>862</v>
+      <c r="F90" s="5" t="s">
+        <v>863</v>
       </c>
       <c r="G90" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
@@ -5938,7 +5896,7 @@
         <v>2504141</v>
       </c>
       <c r="B91" t="s">
-        <v>863</v>
+        <v>274</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>275</v>
@@ -5953,30 +5911,30 @@
         <v>864</v>
       </c>
       <c r="G91" t="s">
-        <v>882</v>
+        <v>870</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>2504141</v>
+        <v>29937600</v>
       </c>
       <c r="B92" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="D92">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="E92" t="s">
         <v>11</v>
       </c>
-      <c r="F92" s="5" t="s">
-        <v>865</v>
+      <c r="F92" t="s">
+        <v>283</v>
       </c>
       <c r="G92" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
@@ -5996,33 +5954,33 @@
         <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G93" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>29937600</v>
+        <v>6863182</v>
       </c>
       <c r="B94" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D94">
-        <v>14</v>
+        <v>158</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
-      </c>
-      <c r="F94" t="s">
-        <v>285</v>
+        <v>20</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>802</v>
       </c>
       <c r="G94" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
@@ -6041,11 +5999,11 @@
       <c r="E95" t="s">
         <v>20</v>
       </c>
-      <c r="F95" s="5" t="s">
-        <v>802</v>
+      <c r="F95" s="7" t="s">
+        <v>803</v>
       </c>
       <c r="G95" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
@@ -6065,10 +6023,10 @@
         <v>20</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="G96" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
@@ -6087,11 +6045,11 @@
       <c r="E97" t="s">
         <v>20</v>
       </c>
-      <c r="F97" s="7" t="s">
-        <v>804</v>
+      <c r="F97" t="s">
+        <v>290</v>
       </c>
       <c r="G97" t="s">
-        <v>892</v>
+        <v>875</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
@@ -6111,33 +6069,33 @@
         <v>20</v>
       </c>
       <c r="F98" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G98" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>6863182</v>
+        <v>51445382</v>
       </c>
       <c r="B99" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="D99">
-        <v>158</v>
+        <v>25</v>
       </c>
       <c r="E99" t="s">
         <v>20</v>
       </c>
-      <c r="F99" t="s">
-        <v>292</v>
+      <c r="F99" s="5" t="s">
+        <v>296</v>
       </c>
       <c r="G99" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
@@ -6156,34 +6114,34 @@
       <c r="E100" t="s">
         <v>20</v>
       </c>
-      <c r="F100" s="5" t="s">
-        <v>296</v>
+      <c r="F100" s="7" t="s">
+        <v>298</v>
       </c>
       <c r="G100" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>51445382</v>
+        <v>4232231</v>
       </c>
       <c r="B101" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="D101">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="E101" t="s">
         <v>20</v>
       </c>
-      <c r="F101" s="7" t="s">
-        <v>298</v>
+      <c r="F101" t="s">
+        <v>832</v>
       </c>
       <c r="G101" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
@@ -6203,33 +6161,33 @@
         <v>20</v>
       </c>
       <c r="F102" t="s">
-        <v>833</v>
+        <v>777</v>
       </c>
       <c r="G102" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>4232231</v>
+        <v>28147654</v>
       </c>
       <c r="B103" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="D103">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="E103" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>777</v>
+        <v>308</v>
       </c>
       <c r="G103" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
@@ -6249,10 +6207,10 @@
         <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G104" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
@@ -6272,56 +6230,56 @@
         <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G105" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>28147654</v>
+        <v>5846183</v>
       </c>
       <c r="B106" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="D106">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
-      </c>
-      <c r="F106" t="s">
-        <v>312</v>
+        <v>20</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>833</v>
       </c>
       <c r="G106" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>5846183</v>
+        <v>7903503</v>
       </c>
       <c r="B107" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D107">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="E107" t="s">
         <v>20</v>
       </c>
-      <c r="F107" s="5" t="s">
+      <c r="F107" t="s">
         <v>834</v>
       </c>
       <c r="G107" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
@@ -6341,10 +6299,10 @@
         <v>20</v>
       </c>
       <c r="F108" t="s">
-        <v>835</v>
+        <v>711</v>
       </c>
       <c r="G108" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
@@ -6364,33 +6322,33 @@
         <v>20</v>
       </c>
       <c r="F109" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G109" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>7903503</v>
+        <v>10977992</v>
       </c>
       <c r="B110" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D110">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="E110" t="s">
         <v>20</v>
       </c>
       <c r="F110" t="s">
-        <v>712</v>
+        <v>323</v>
       </c>
       <c r="G110" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
@@ -6410,10 +6368,10 @@
         <v>20</v>
       </c>
       <c r="F111" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G111" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
@@ -6433,10 +6391,10 @@
         <v>20</v>
       </c>
       <c r="F112" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G112" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
@@ -6456,33 +6414,33 @@
         <v>20</v>
       </c>
       <c r="F113" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G113" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>10977992</v>
+        <v>10487104</v>
       </c>
       <c r="B114" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="D114">
-        <v>126</v>
+        <v>25</v>
       </c>
       <c r="E114" t="s">
         <v>20</v>
       </c>
       <c r="F114" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="G114" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
@@ -6502,33 +6460,33 @@
         <v>20</v>
       </c>
       <c r="F115" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G115" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>10487104</v>
+        <v>31869391</v>
       </c>
       <c r="B116" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="D116">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E116" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>332</v>
+        <v>805</v>
       </c>
       <c r="G116" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
@@ -6536,7 +6494,7 @@
         <v>31869391</v>
       </c>
       <c r="B117" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>335</v>
@@ -6547,34 +6505,34 @@
       <c r="E117" t="s">
         <v>11</v>
       </c>
-      <c r="F117" t="s">
-        <v>805</v>
+      <c r="F117" s="5" t="s">
+        <v>858</v>
       </c>
       <c r="G117" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>31869391</v>
+        <v>17328077</v>
       </c>
       <c r="B118" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="D118">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E118" t="s">
         <v>11</v>
       </c>
-      <c r="F118" s="5" t="s">
-        <v>859</v>
+      <c r="F118" t="s">
+        <v>342</v>
       </c>
       <c r="G118" t="s">
-        <v>882</v>
+        <v>870</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
@@ -6582,7 +6540,7 @@
         <v>17328077</v>
       </c>
       <c r="B119" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>341</v>
@@ -6594,33 +6552,33 @@
         <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>342</v>
+        <v>715</v>
       </c>
       <c r="G119" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>17328077</v>
+        <v>5689517</v>
       </c>
       <c r="B120" t="s">
-        <v>344</v>
+        <v>815</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D120">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F120" t="s">
-        <v>715</v>
+        <v>806</v>
       </c>
       <c r="G120" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
@@ -6628,7 +6586,7 @@
         <v>5689517</v>
       </c>
       <c r="B121" t="s">
-        <v>815</v>
+        <v>345</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>346</v>
@@ -6640,33 +6598,33 @@
         <v>20</v>
       </c>
       <c r="F121" t="s">
-        <v>806</v>
+        <v>779</v>
       </c>
       <c r="G121" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>5689517</v>
+        <v>23148729</v>
       </c>
       <c r="B122" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="D122">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="E122" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>779</v>
+        <v>835</v>
       </c>
       <c r="G122" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
@@ -6686,33 +6644,33 @@
         <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>836</v>
+        <v>360</v>
       </c>
       <c r="G123" t="s">
-        <v>890</v>
+        <v>869</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>23148729</v>
+        <v>25602382</v>
       </c>
       <c r="B124" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D124">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F124" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="G124" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
@@ -6720,7 +6678,7 @@
         <v>25602382</v>
       </c>
       <c r="B125" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>362</v>
@@ -6732,10 +6690,10 @@
         <v>20</v>
       </c>
       <c r="F125" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="G125" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
@@ -6755,10 +6713,10 @@
         <v>20</v>
       </c>
       <c r="F126" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G126" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
@@ -6778,10 +6736,10 @@
         <v>20</v>
       </c>
       <c r="F127" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="G127" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
@@ -6801,24 +6759,24 @@
         <v>20</v>
       </c>
       <c r="F128" t="s">
-        <v>375</v>
+        <v>836</v>
       </c>
       <c r="G128" t="s">
-        <v>891</v>
+        <v>872</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>25602382</v>
+        <v>7758020</v>
       </c>
       <c r="B129" t="s">
-        <v>365</v>
+        <v>719</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="D129">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E129" t="s">
         <v>20</v>
@@ -6827,30 +6785,30 @@
         <v>837</v>
       </c>
       <c r="G129" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>7758020</v>
+        <v>7991770</v>
       </c>
       <c r="B130" t="s">
-        <v>719</v>
+        <v>381</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D130">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E130" t="s">
         <v>20</v>
       </c>
       <c r="F130" t="s">
-        <v>838</v>
+        <v>383</v>
       </c>
       <c r="G130" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
@@ -6869,11 +6827,11 @@
       <c r="E131" t="s">
         <v>20</v>
       </c>
-      <c r="F131" t="s">
-        <v>383</v>
+      <c r="F131" s="5" t="s">
+        <v>855</v>
       </c>
       <c r="G131" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
@@ -6892,34 +6850,34 @@
       <c r="E132" t="s">
         <v>20</v>
       </c>
-      <c r="F132" s="5" t="s">
-        <v>856</v>
+      <c r="F132" t="s">
+        <v>810</v>
       </c>
       <c r="G132" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>7991770</v>
+        <v>17151547</v>
       </c>
       <c r="B133" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="D133">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E133" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="G133" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
@@ -6938,57 +6896,57 @@
       <c r="E134" t="s">
         <v>11</v>
       </c>
-      <c r="F134" t="s">
-        <v>807</v>
+      <c r="F134" s="5" t="s">
+        <v>856</v>
       </c>
       <c r="G134" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>17151547</v>
+        <v>9648811</v>
       </c>
       <c r="B135" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="D135">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
-      </c>
-      <c r="F135" s="5" t="s">
-        <v>857</v>
+        <v>20</v>
+      </c>
+      <c r="F135" t="s">
+        <v>394</v>
       </c>
       <c r="G135" t="s">
-        <v>872</v>
+        <v>881</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>9648811</v>
+        <v>19419805</v>
       </c>
       <c r="B136" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="D136">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="E136" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="G136" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
@@ -6999,7 +6957,7 @@
         <v>396</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="D137">
         <v>14</v>
@@ -7008,10 +6966,10 @@
         <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="G137" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
@@ -7031,10 +6989,10 @@
         <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="G138" t="s">
-        <v>869</v>
+        <v>881</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
@@ -7054,33 +7012,33 @@
         <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G139" t="s">
-        <v>869</v>
+        <v>880</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>19419805</v>
+        <v>10656471</v>
       </c>
       <c r="B140" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>400</v>
+        <v>758</v>
       </c>
       <c r="D140">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F140" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="G140" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
@@ -7091,7 +7049,7 @@
         <v>405</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>758</v>
+        <v>406</v>
       </c>
       <c r="D141">
         <v>52</v>
@@ -7100,56 +7058,56 @@
         <v>20</v>
       </c>
       <c r="F141" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="G141" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>10656471</v>
+        <v>24986945</v>
       </c>
       <c r="B142" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="D142">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="E142" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="G142" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>24986945</v>
+        <v>1747040</v>
       </c>
       <c r="B143" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="D143">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F143" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="G143" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
@@ -7169,33 +7127,33 @@
         <v>20</v>
       </c>
       <c r="F144" t="s">
-        <v>417</v>
+        <v>725</v>
       </c>
       <c r="G144" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>1747040</v>
+        <v>5208133</v>
       </c>
       <c r="B145" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="D145">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="E145" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>725</v>
+        <v>421</v>
       </c>
       <c r="G145" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
@@ -7203,7 +7161,7 @@
         <v>5208133</v>
       </c>
       <c r="B146" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="C146" s="6" t="s">
         <v>420</v>
@@ -7215,10 +7173,10 @@
         <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="G146" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
@@ -7238,10 +7196,10 @@
         <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="G147" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
@@ -7261,33 +7219,33 @@
         <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G148" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>5208133</v>
+        <v>3708931</v>
       </c>
       <c r="B149" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="D149">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E149" t="s">
         <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="G149" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
@@ -7307,10 +7265,10 @@
         <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="G150" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
@@ -7330,33 +7288,33 @@
         <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="G151" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152">
-        <v>3708931</v>
+        <v>3089969</v>
       </c>
       <c r="B152" t="s">
-        <v>428</v>
+        <v>729</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="D152">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E152" t="s">
         <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>434</v>
+        <v>838</v>
       </c>
       <c r="G152" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
@@ -7364,7 +7322,7 @@
         <v>3089969</v>
       </c>
       <c r="B153" t="s">
-        <v>729</v>
+        <v>435</v>
       </c>
       <c r="C153" s="6" t="s">
         <v>436</v>
@@ -7376,10 +7334,10 @@
         <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>839</v>
+        <v>439</v>
       </c>
       <c r="G153" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
@@ -7399,10 +7357,10 @@
         <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G154" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
@@ -7422,10 +7380,10 @@
         <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G155" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
@@ -7445,79 +7403,79 @@
         <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G156" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157">
-        <v>3089969</v>
+        <v>32552307</v>
       </c>
       <c r="B157" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="D157">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
-      </c>
-      <c r="F157" t="s">
-        <v>442</v>
+        <v>20</v>
+      </c>
+      <c r="F157" s="5" t="s">
+        <v>446</v>
       </c>
       <c r="G157" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158">
-        <v>32552307</v>
+        <v>6757868</v>
       </c>
       <c r="B158" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="D158">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="E158" t="s">
-        <v>20</v>
-      </c>
-      <c r="F158" s="5" t="s">
-        <v>446</v>
+        <v>11</v>
+      </c>
+      <c r="F158" s="7" t="s">
+        <v>450</v>
       </c>
       <c r="G158" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159">
-        <v>6757868</v>
+        <v>22486997</v>
       </c>
       <c r="B159" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="D159">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="E159" t="s">
         <v>11</v>
       </c>
-      <c r="F159" s="7" t="s">
-        <v>450</v>
+      <c r="F159" t="s">
+        <v>453</v>
       </c>
       <c r="G159" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
@@ -7537,10 +7495,10 @@
         <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="G160" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
@@ -7559,11 +7517,11 @@
       <c r="E161" t="s">
         <v>11</v>
       </c>
-      <c r="F161" t="s">
-        <v>455</v>
+      <c r="F161" s="5" t="s">
+        <v>878</v>
       </c>
       <c r="G161" t="s">
-        <v>869</v>
+        <v>881</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
@@ -7582,57 +7540,57 @@
       <c r="E162" t="s">
         <v>11</v>
       </c>
-      <c r="F162" s="5" t="s">
-        <v>884</v>
+      <c r="F162" t="s">
+        <v>458</v>
       </c>
       <c r="G162" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163">
-        <v>22486997</v>
+        <v>11564352</v>
       </c>
       <c r="B163" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="D163">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
-      </c>
-      <c r="F163" t="s">
-        <v>458</v>
+        <v>20</v>
+      </c>
+      <c r="F163" s="5" t="s">
+        <v>854</v>
       </c>
       <c r="G163" t="s">
-        <v>869</v>
+        <v>880</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164">
-        <v>11564352</v>
+        <v>420223</v>
       </c>
       <c r="B164" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D164">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="E164" t="s">
-        <v>20</v>
-      </c>
-      <c r="F164" s="5" t="s">
-        <v>855</v>
+        <v>11</v>
+      </c>
+      <c r="F164" t="s">
+        <v>866</v>
       </c>
       <c r="G164" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
@@ -7652,33 +7610,33 @@
         <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="G165" t="s">
-        <v>869</v>
+        <v>881</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A166">
+      <c r="A166" s="5">
         <v>420223</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" s="5" t="s">
         <v>462</v>
       </c>
       <c r="C166" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="D166">
+      <c r="D166" s="5">
         <v>97</v>
       </c>
-      <c r="E166" t="s">
-        <v>11</v>
-      </c>
-      <c r="F166" t="s">
-        <v>866</v>
+      <c r="E166" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F166" s="5" t="s">
+        <v>468</v>
       </c>
       <c r="G166" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
@@ -7698,33 +7656,33 @@
         <v>11</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>468</v>
+        <v>859</v>
       </c>
       <c r="G167" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>11488754</v>
+      </c>
+      <c r="B168" t="s">
+        <v>470</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="D168">
+        <v>17</v>
+      </c>
+      <c r="E168" t="s">
+        <v>11</v>
+      </c>
+      <c r="F168" s="5" t="s">
+        <v>852</v>
+      </c>
+      <c r="G168" t="s">
         <v>872</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A168" s="5">
-        <v>420223</v>
-      </c>
-      <c r="B168" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="C168" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="D168" s="5">
-        <v>97</v>
-      </c>
-      <c r="E168" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F168" s="5" t="s">
-        <v>860</v>
-      </c>
-      <c r="G168" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
@@ -7743,34 +7701,34 @@
       <c r="E169" t="s">
         <v>11</v>
       </c>
-      <c r="F169" s="5" t="s">
+      <c r="F169" s="7" t="s">
         <v>853</v>
       </c>
       <c r="G169" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170">
-        <v>11488754</v>
+        <v>6883715</v>
       </c>
       <c r="B170" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="D170">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
-      </c>
-      <c r="F170" s="7" t="s">
-        <v>854</v>
+        <v>20</v>
+      </c>
+      <c r="F170" s="5" t="s">
+        <v>478</v>
       </c>
       <c r="G170" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
@@ -7789,11 +7747,11 @@
       <c r="E171" t="s">
         <v>20</v>
       </c>
-      <c r="F171" s="5" t="s">
-        <v>478</v>
+      <c r="F171" s="7" t="s">
+        <v>480</v>
       </c>
       <c r="G171" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
@@ -7812,34 +7770,34 @@
       <c r="E172" t="s">
         <v>20</v>
       </c>
-      <c r="F172" s="7" t="s">
-        <v>480</v>
+      <c r="F172" t="s">
+        <v>482</v>
       </c>
       <c r="G172" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173">
-        <v>6883715</v>
+        <v>5764065</v>
       </c>
       <c r="B173" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="D173">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E173" t="s">
         <v>20</v>
       </c>
       <c r="F173" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="G173" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
@@ -7859,79 +7817,79 @@
         <v>20</v>
       </c>
       <c r="F174" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="G174" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175">
-        <v>5764065</v>
+        <v>11051205</v>
       </c>
       <c r="B175" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="D175">
-        <v>28</v>
+        <v>192</v>
       </c>
       <c r="E175" t="s">
         <v>20</v>
       </c>
       <c r="F175" t="s">
-        <v>487</v>
+        <v>731</v>
       </c>
       <c r="G175" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A176" s="5">
+        <v>16234448</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>839</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="D176" s="5">
+        <v>37</v>
+      </c>
+      <c r="E176" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F176" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="G176" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>4016091</v>
+      </c>
+      <c r="B177" t="s">
+        <v>495</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="D177">
+        <v>31</v>
+      </c>
+      <c r="E177" t="s">
+        <v>11</v>
+      </c>
+      <c r="F177" t="s">
+        <v>497</v>
+      </c>
+      <c r="G177" t="s">
         <v>869</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A176">
-        <v>11051205</v>
-      </c>
-      <c r="B176" t="s">
-        <v>488</v>
-      </c>
-      <c r="C176" s="6" t="s">
-        <v>489</v>
-      </c>
-      <c r="D176">
-        <v>192</v>
-      </c>
-      <c r="E176" t="s">
-        <v>20</v>
-      </c>
-      <c r="F176" t="s">
-        <v>731</v>
-      </c>
-      <c r="G176" s="7" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A177" s="5">
-        <v>16234448</v>
-      </c>
-      <c r="B177" s="5" t="s">
-        <v>840</v>
-      </c>
-      <c r="C177" s="6" t="s">
-        <v>492</v>
-      </c>
-      <c r="D177" s="5">
-        <v>37</v>
-      </c>
-      <c r="E177" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F177" s="5" t="s">
-        <v>841</v>
-      </c>
-      <c r="G177" s="5" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
@@ -7951,33 +7909,33 @@
         <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="G178" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179">
-        <v>4016091</v>
+        <v>4108604</v>
       </c>
       <c r="B179" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="D179">
-        <v>31</v>
+        <v>134</v>
       </c>
       <c r="E179" t="s">
-        <v>11</v>
-      </c>
-      <c r="F179" t="s">
-        <v>499</v>
+        <v>20</v>
+      </c>
+      <c r="F179" s="5" t="s">
+        <v>851</v>
       </c>
       <c r="G179" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
@@ -7996,11 +7954,11 @@
       <c r="E180" t="s">
         <v>20</v>
       </c>
-      <c r="F180" s="5" t="s">
-        <v>852</v>
-      </c>
-      <c r="G180" s="7" t="s">
-        <v>872</v>
+      <c r="F180" s="7" t="s">
+        <v>850</v>
+      </c>
+      <c r="G180" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
@@ -8020,33 +7978,33 @@
         <v>20</v>
       </c>
       <c r="F181" s="7" t="s">
-        <v>851</v>
-      </c>
-      <c r="G181" s="7" t="s">
-        <v>872</v>
+        <v>507</v>
+      </c>
+      <c r="G181" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182">
-        <v>4108604</v>
+        <v>28979488</v>
       </c>
       <c r="B182" t="s">
-        <v>501</v>
-      </c>
-      <c r="C182" s="6" t="s">
-        <v>502</v>
+        <v>508</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>509</v>
       </c>
       <c r="D182">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="E182" t="s">
-        <v>20</v>
-      </c>
-      <c r="F182" s="7" t="s">
-        <v>507</v>
+        <v>11</v>
+      </c>
+      <c r="F182" t="s">
+        <v>510</v>
       </c>
       <c r="G182" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
@@ -8066,10 +8024,10 @@
         <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="G183" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
@@ -8089,33 +8047,33 @@
         <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="G184" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185">
-        <v>28979488</v>
+        <v>299659</v>
       </c>
       <c r="B185" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="D185">
-        <v>17</v>
+        <v>744</v>
       </c>
       <c r="E185" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F185" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="G185" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
@@ -8135,33 +8093,33 @@
         <v>20</v>
       </c>
       <c r="F186" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G186" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187">
-        <v>299659</v>
+        <v>9463268</v>
       </c>
       <c r="B187" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="D187">
-        <v>744</v>
+        <v>11</v>
       </c>
       <c r="E187" t="s">
         <v>20</v>
       </c>
       <c r="F187" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="G187" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
@@ -8169,7 +8127,7 @@
         <v>9463268</v>
       </c>
       <c r="B188" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="C188" s="4" t="s">
         <v>521</v>
@@ -8181,33 +8139,33 @@
         <v>20</v>
       </c>
       <c r="F188" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="G188" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A189">
-        <v>9463268</v>
-      </c>
-      <c r="B189" t="s">
-        <v>524</v>
+      <c r="A189" s="8">
+        <v>30864583</v>
+      </c>
+      <c r="B189" s="8" t="s">
+        <v>527</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="D189">
-        <v>11</v>
-      </c>
-      <c r="E189" t="s">
-        <v>20</v>
-      </c>
-      <c r="F189" t="s">
-        <v>525</v>
+        <v>528</v>
+      </c>
+      <c r="D189" s="8">
+        <v>111</v>
+      </c>
+      <c r="E189" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F189" s="8" t="s">
+        <v>841</v>
       </c>
       <c r="G189" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
@@ -8227,33 +8185,33 @@
         <v>11</v>
       </c>
       <c r="F190" s="8" t="s">
-        <v>842</v>
+        <v>783</v>
       </c>
       <c r="G190" t="s">
-        <v>869</v>
+        <v>881</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A191" s="8">
-        <v>30864583</v>
-      </c>
-      <c r="B191" s="8" t="s">
-        <v>527</v>
+      <c r="A191">
+        <v>13212431</v>
+      </c>
+      <c r="B191" t="s">
+        <v>534</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="D191" s="8">
-        <v>111</v>
-      </c>
-      <c r="E191" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F191" s="8" t="s">
-        <v>783</v>
+        <v>535</v>
+      </c>
+      <c r="D191">
+        <v>35</v>
+      </c>
+      <c r="E191" t="s">
+        <v>20</v>
+      </c>
+      <c r="F191" s="5" t="s">
+        <v>536</v>
       </c>
       <c r="G191" t="s">
-        <v>869</v>
+        <v>880</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
@@ -8272,11 +8230,11 @@
       <c r="E192" t="s">
         <v>20</v>
       </c>
-      <c r="F192" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="G192" s="7" t="s">
-        <v>876</v>
+      <c r="F192" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="G192" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
@@ -8295,11 +8253,11 @@
       <c r="E193" t="s">
         <v>20</v>
       </c>
-      <c r="F193" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="G193" s="7" t="s">
-        <v>876</v>
+      <c r="F193" t="s">
+        <v>784</v>
+      </c>
+      <c r="G193" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
@@ -8318,11 +8276,11 @@
       <c r="E194" t="s">
         <v>20</v>
       </c>
-      <c r="F194" t="s">
-        <v>784</v>
+      <c r="F194" s="5" t="s">
+        <v>848</v>
       </c>
       <c r="G194" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
@@ -8341,80 +8299,80 @@
       <c r="E195" t="s">
         <v>20</v>
       </c>
-      <c r="F195" s="5" t="s">
+      <c r="F195" s="7" t="s">
         <v>849</v>
       </c>
-      <c r="G195" s="7" t="s">
-        <v>874</v>
+      <c r="G195" t="s">
+        <v>872</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196">
-        <v>13212431</v>
+        <v>10357823</v>
       </c>
       <c r="B196" t="s">
-        <v>534</v>
+        <v>550</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>535</v>
+        <v>551</v>
       </c>
       <c r="D196">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E196" t="s">
         <v>20</v>
       </c>
-      <c r="F196" s="7" t="s">
-        <v>850</v>
-      </c>
-      <c r="G196" s="7" t="s">
-        <v>874</v>
+      <c r="F196" t="s">
+        <v>785</v>
+      </c>
+      <c r="G196" t="s">
+        <v>872</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197">
-        <v>10357823</v>
+        <v>4414648</v>
       </c>
       <c r="B197" t="s">
-        <v>550</v>
+        <v>746</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="D197">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E197" t="s">
         <v>20</v>
       </c>
       <c r="F197" t="s">
-        <v>785</v>
+        <v>808</v>
       </c>
       <c r="G197" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198">
-        <v>4414648</v>
+        <v>2822005</v>
       </c>
       <c r="B198" t="s">
-        <v>746</v>
+        <v>562</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="D198">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="E198" t="s">
         <v>20</v>
       </c>
       <c r="F198" t="s">
-        <v>808</v>
+        <v>564</v>
       </c>
       <c r="G198" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
@@ -8434,10 +8392,10 @@
         <v>20</v>
       </c>
       <c r="F199" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="G199" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
@@ -8456,11 +8414,11 @@
       <c r="E200" t="s">
         <v>20</v>
       </c>
-      <c r="F200" t="s">
-        <v>566</v>
+      <c r="F200" s="5" t="s">
+        <v>567</v>
       </c>
       <c r="G200" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
@@ -8479,34 +8437,34 @@
       <c r="E201" t="s">
         <v>20</v>
       </c>
-      <c r="F201" s="5" t="s">
-        <v>567</v>
-      </c>
-      <c r="G201" s="7" t="s">
-        <v>872</v>
+      <c r="F201" t="s">
+        <v>569</v>
+      </c>
+      <c r="G201" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202">
-        <v>2822005</v>
+        <v>2190161</v>
       </c>
       <c r="B202" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="D202">
-        <v>118</v>
+        <v>174</v>
       </c>
       <c r="E202" t="s">
         <v>20</v>
       </c>
       <c r="F202" t="s">
-        <v>569</v>
-      </c>
-      <c r="G202" s="7" t="s">
-        <v>869</v>
+        <v>572</v>
+      </c>
+      <c r="G202" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
@@ -8525,11 +8483,11 @@
       <c r="E203" t="s">
         <v>20</v>
       </c>
-      <c r="F203" t="s">
-        <v>572</v>
+      <c r="F203" s="5" t="s">
+        <v>574</v>
       </c>
       <c r="G203" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
@@ -8548,34 +8506,34 @@
       <c r="E204" t="s">
         <v>20</v>
       </c>
-      <c r="F204" s="5" t="s">
-        <v>574</v>
+      <c r="F204" s="7" t="s">
+        <v>845</v>
       </c>
       <c r="G204" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205">
-        <v>2190161</v>
+        <v>23927887</v>
       </c>
       <c r="B205" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="D205">
-        <v>174</v>
+        <v>13</v>
       </c>
       <c r="E205" t="s">
-        <v>20</v>
-      </c>
-      <c r="F205" s="7" t="s">
-        <v>846</v>
+        <v>11</v>
+      </c>
+      <c r="F205" t="s">
+        <v>579</v>
       </c>
       <c r="G205" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
@@ -8595,33 +8553,33 @@
         <v>11</v>
       </c>
       <c r="F206" t="s">
-        <v>579</v>
-      </c>
-      <c r="G206" s="7" t="s">
-        <v>872</v>
+        <v>874</v>
+      </c>
+      <c r="G206" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207">
-        <v>23927887</v>
+        <v>31091242</v>
       </c>
       <c r="B207" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="D207">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E207" t="s">
         <v>11</v>
       </c>
       <c r="F207" t="s">
-        <v>877</v>
+        <v>586</v>
       </c>
       <c r="G207" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
@@ -8641,33 +8599,33 @@
         <v>11</v>
       </c>
       <c r="F208" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="G208" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209">
-        <v>31091242</v>
+        <v>4956822</v>
       </c>
       <c r="B209" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="D209">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="E209" t="s">
-        <v>11</v>
-      </c>
-      <c r="F209" t="s">
-        <v>588</v>
+        <v>20</v>
+      </c>
+      <c r="F209" s="5" t="s">
+        <v>800</v>
       </c>
       <c r="G209" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
@@ -8686,34 +8644,34 @@
       <c r="E210" t="s">
         <v>20</v>
       </c>
-      <c r="F210" s="5" t="s">
-        <v>800</v>
-      </c>
-      <c r="G210" s="7" t="s">
-        <v>876</v>
+      <c r="F210" t="s">
+        <v>842</v>
+      </c>
+      <c r="G210" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211">
-        <v>4956822</v>
+        <v>10120709</v>
       </c>
       <c r="B211" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="D211">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E211" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F211" t="s">
-        <v>843</v>
+        <v>787</v>
       </c>
       <c r="G211" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
@@ -8733,10 +8691,10 @@
         <v>11</v>
       </c>
       <c r="F212" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G212" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
@@ -8756,10 +8714,10 @@
         <v>11</v>
       </c>
       <c r="F213" t="s">
-        <v>786</v>
+        <v>798</v>
       </c>
       <c r="G213" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.2">
@@ -8779,142 +8737,145 @@
         <v>11</v>
       </c>
       <c r="F214" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="G214" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215">
-        <v>10120709</v>
+        <v>25454734</v>
       </c>
       <c r="B215" t="s">
-        <v>595</v>
+        <v>605</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
       <c r="D215">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="E215" t="s">
         <v>11</v>
       </c>
       <c r="F215" t="s">
-        <v>799</v>
+        <v>809</v>
       </c>
       <c r="G215" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216">
-        <v>6608795</v>
+        <v>25454734</v>
       </c>
       <c r="B216" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="D216">
-        <v>172</v>
+        <v>14</v>
       </c>
       <c r="E216" t="s">
         <v>11</v>
+      </c>
+      <c r="F216" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217">
-        <v>25454734</v>
+        <v>42482326</v>
       </c>
       <c r="B217" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="D217">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E217" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F217" t="s">
-        <v>809</v>
+        <v>613</v>
       </c>
       <c r="G217" t="s">
-        <v>869</v>
+        <v>880</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218">
-        <v>25454734</v>
+        <v>42482326</v>
       </c>
       <c r="B218" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="D218">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E218" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F218" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="G218" t="s">
-        <v>869</v>
+        <v>880</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219">
-        <v>42482326</v>
+        <v>21300924</v>
       </c>
       <c r="B219" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="D219">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E219" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F219" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="G219" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220">
-        <v>42482326</v>
+        <v>21300924</v>
       </c>
       <c r="B220" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="D220">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E220" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F220" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="G220" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.2">
@@ -8934,240 +8895,240 @@
         <v>11</v>
       </c>
       <c r="F221" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="G221" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222">
-        <v>21300924</v>
+        <v>3944825</v>
       </c>
       <c r="B222" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="D222">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E222" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F222" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="G222" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223">
-        <v>21300924</v>
+        <v>3944825</v>
       </c>
       <c r="B223" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="D223">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E223" t="s">
-        <v>11</v>
-      </c>
-      <c r="F223" t="s">
-        <v>623</v>
+        <v>20</v>
+      </c>
+      <c r="F223" s="5" t="s">
+        <v>628</v>
       </c>
       <c r="G223" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224">
-        <v>3944825</v>
+        <v>43585019</v>
       </c>
       <c r="B224" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="D224">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E224" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F224" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="G224" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225">
-        <v>3944825</v>
+        <v>43585019</v>
       </c>
       <c r="B225" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="D225">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E225" t="s">
-        <v>20</v>
-      </c>
-      <c r="F225" s="5" t="s">
-        <v>628</v>
+        <v>11</v>
+      </c>
+      <c r="F225" t="s">
+        <v>633</v>
       </c>
       <c r="G225" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226">
-        <v>43585019</v>
+        <v>5552833</v>
       </c>
       <c r="B226" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
       <c r="D226">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E226" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F226" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
       <c r="G226" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227">
-        <v>43585019</v>
+        <v>5552833</v>
       </c>
       <c r="B227" t="s">
-        <v>629</v>
+        <v>641</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
       <c r="D227">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E227" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F227" t="s">
-        <v>633</v>
+        <v>776</v>
       </c>
       <c r="G227" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A228">
+      <c r="A228" s="9">
         <v>5552833</v>
       </c>
-      <c r="B228" t="s">
-        <v>638</v>
-      </c>
-      <c r="C228" s="4" t="s">
+      <c r="B228" s="9" t="s">
+        <v>788</v>
+      </c>
+      <c r="C228" s="11" t="s">
         <v>639</v>
       </c>
-      <c r="D228">
+      <c r="D228" s="9">
         <v>26</v>
       </c>
-      <c r="E228" t="s">
-        <v>20</v>
-      </c>
-      <c r="F228" t="s">
-        <v>640</v>
+      <c r="E228" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F228" s="9" t="s">
+        <v>790</v>
       </c>
       <c r="G228" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A229">
+      <c r="A229" s="9">
         <v>5552833</v>
       </c>
-      <c r="B229" t="s">
-        <v>641</v>
-      </c>
-      <c r="C229" s="4" t="s">
+      <c r="B229" s="9" t="s">
+        <v>788</v>
+      </c>
+      <c r="C229" s="11" t="s">
         <v>639</v>
       </c>
-      <c r="D229">
+      <c r="D229" s="9">
         <v>26</v>
       </c>
-      <c r="E229" t="s">
-        <v>20</v>
-      </c>
-      <c r="F229" t="s">
-        <v>776</v>
+      <c r="E229" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F229" s="13" t="s">
+        <v>789</v>
       </c>
       <c r="G229" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A230" s="9">
-        <v>5552833</v>
-      </c>
-      <c r="B230" s="9" t="s">
-        <v>788</v>
-      </c>
-      <c r="C230" s="11" t="s">
-        <v>639</v>
-      </c>
-      <c r="D230" s="9">
+      <c r="A230">
+        <v>12998568</v>
+      </c>
+      <c r="B230" t="s">
+        <v>646</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="D230">
         <v>26</v>
       </c>
-      <c r="E230" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F230" s="9" t="s">
-        <v>790</v>
-      </c>
-      <c r="G230" s="13" t="s">
-        <v>876</v>
+      <c r="E230" t="s">
+        <v>20</v>
+      </c>
+      <c r="F230" t="s">
+        <v>843</v>
+      </c>
+      <c r="G230" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A231" s="9">
-        <v>5552833</v>
-      </c>
-      <c r="B231" s="9" t="s">
-        <v>788</v>
-      </c>
-      <c r="C231" s="11" t="s">
-        <v>639</v>
-      </c>
-      <c r="D231" s="9">
+      <c r="A231">
+        <v>12998568</v>
+      </c>
+      <c r="B231" t="s">
+        <v>648</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="D231">
         <v>26</v>
       </c>
-      <c r="E231" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F231" s="13" t="s">
-        <v>789</v>
-      </c>
-      <c r="G231" s="13" t="s">
-        <v>876</v>
+      <c r="E231" t="s">
+        <v>20</v>
+      </c>
+      <c r="F231" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="G231" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.2">
@@ -9175,7 +9136,7 @@
         <v>12998568</v>
       </c>
       <c r="B232" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="C232" s="4" t="s">
         <v>647</v>
@@ -9186,11 +9147,11 @@
       <c r="E232" t="s">
         <v>20</v>
       </c>
-      <c r="F232" t="s">
-        <v>844</v>
+      <c r="F232" s="5" t="s">
+        <v>650</v>
       </c>
       <c r="G232" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.2">
@@ -9210,10 +9171,10 @@
         <v>20</v>
       </c>
       <c r="F233" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="G233" s="7" t="s">
-        <v>876</v>
+        <v>847</v>
+      </c>
+      <c r="G233" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.2">
@@ -9232,80 +9193,80 @@
       <c r="E234" t="s">
         <v>20</v>
       </c>
-      <c r="F234" s="5" t="s">
-        <v>650</v>
-      </c>
-      <c r="G234" s="7" t="s">
-        <v>876</v>
+      <c r="F234" t="s">
+        <v>844</v>
+      </c>
+      <c r="G234" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235">
-        <v>12998568</v>
+        <v>6821887</v>
       </c>
       <c r="B235" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>647</v>
+        <v>655</v>
       </c>
       <c r="D235">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E235" t="s">
         <v>20</v>
       </c>
-      <c r="F235" s="5" t="s">
-        <v>848</v>
+      <c r="F235" t="s">
+        <v>656</v>
       </c>
       <c r="G235" t="s">
-        <v>869</v>
+        <v>881</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236">
-        <v>12998568</v>
+        <v>1463284</v>
       </c>
       <c r="B236" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>647</v>
+        <v>658</v>
       </c>
       <c r="D236">
-        <v>26</v>
+        <v>460</v>
       </c>
       <c r="E236" t="s">
         <v>20</v>
       </c>
       <c r="F236" t="s">
-        <v>845</v>
+        <v>659</v>
       </c>
       <c r="G236" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237">
-        <v>6821887</v>
+        <v>1463284</v>
       </c>
       <c r="B237" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="D237">
-        <v>21</v>
+        <v>460</v>
       </c>
       <c r="E237" t="s">
         <v>20</v>
       </c>
-      <c r="F237" t="s">
-        <v>656</v>
+      <c r="F237" s="5" t="s">
+        <v>846</v>
       </c>
       <c r="G237" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.2">
@@ -9313,7 +9274,7 @@
         <v>1463284</v>
       </c>
       <c r="B238" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="C238" s="4" t="s">
         <v>658</v>
@@ -9325,10 +9286,10 @@
         <v>20</v>
       </c>
       <c r="F238" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="G238" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.2">
@@ -9347,11 +9308,11 @@
       <c r="E239" t="s">
         <v>20</v>
       </c>
-      <c r="F239" s="5" t="s">
-        <v>847</v>
-      </c>
-      <c r="G239" s="7" t="s">
-        <v>872</v>
+      <c r="F239" t="s">
+        <v>664</v>
+      </c>
+      <c r="G239" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.2">
@@ -9370,57 +9331,57 @@
       <c r="E240" t="s">
         <v>20</v>
       </c>
-      <c r="F240" t="s">
-        <v>662</v>
+      <c r="F240" s="5" t="s">
+        <v>867</v>
       </c>
       <c r="G240" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241">
-        <v>1463284</v>
+        <v>5759925</v>
       </c>
       <c r="B241" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>658</v>
+        <v>667</v>
       </c>
       <c r="D241">
-        <v>460</v>
+        <v>32</v>
       </c>
       <c r="E241" t="s">
         <v>20</v>
       </c>
-      <c r="F241" t="s">
-        <v>664</v>
+      <c r="F241" s="5" t="s">
+        <v>668</v>
       </c>
       <c r="G241" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242">
-        <v>1463284</v>
+        <v>5759925</v>
       </c>
       <c r="B242" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>658</v>
+        <v>667</v>
       </c>
       <c r="D242">
-        <v>460</v>
+        <v>32</v>
       </c>
       <c r="E242" t="s">
         <v>20</v>
       </c>
-      <c r="F242" s="5" t="s">
-        <v>868</v>
+      <c r="F242" s="7" t="s">
+        <v>669</v>
       </c>
       <c r="G242" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.2">
@@ -9439,11 +9400,11 @@
       <c r="E243" t="s">
         <v>20</v>
       </c>
-      <c r="F243" s="5" t="s">
-        <v>668</v>
-      </c>
-      <c r="G243" s="7" t="s">
-        <v>876</v>
+      <c r="F243" t="s">
+        <v>671</v>
+      </c>
+      <c r="G243" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.2">
@@ -9462,11 +9423,11 @@
       <c r="E244" t="s">
         <v>20</v>
       </c>
-      <c r="F244" s="7" t="s">
-        <v>669</v>
-      </c>
-      <c r="G244" s="7" t="s">
-        <v>876</v>
+      <c r="F244" t="s">
+        <v>672</v>
+      </c>
+      <c r="G244" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.2">
@@ -9474,7 +9435,7 @@
         <v>5759925</v>
       </c>
       <c r="B245" t="s">
-        <v>666</v>
+        <v>674</v>
       </c>
       <c r="C245" s="4" t="s">
         <v>667</v>
@@ -9486,103 +9447,105 @@
         <v>20</v>
       </c>
       <c r="F245" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="G245" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246">
-        <v>5759925</v>
+        <v>11928199</v>
       </c>
       <c r="B246" t="s">
-        <v>666</v>
+        <v>750</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>667</v>
+        <v>751</v>
       </c>
       <c r="D246">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="E246" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F246" t="s">
-        <v>672</v>
+        <v>752</v>
       </c>
       <c r="G246" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247">
-        <v>5759925</v>
+        <v>11928199</v>
       </c>
       <c r="B247" t="s">
-        <v>674</v>
+        <v>750</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>667</v>
+        <v>751</v>
       </c>
       <c r="D247">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="E247" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F247" t="s">
-        <v>676</v>
+        <v>753</v>
       </c>
       <c r="G247" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248">
-        <v>11928199</v>
+        <v>5155226</v>
       </c>
       <c r="B248" t="s">
-        <v>750</v>
+        <v>759</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="D248">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="E248" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F248" t="s">
-        <v>752</v>
+        <v>761</v>
       </c>
       <c r="G248" t="s">
-        <v>870</v>
-      </c>
+        <v>869</v>
+      </c>
+      <c r="I248" s="14"/>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249">
-        <v>11928199</v>
+        <v>5155226</v>
       </c>
       <c r="B249" t="s">
-        <v>750</v>
+        <v>759</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="D249">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="E249" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F249" t="s">
-        <v>753</v>
+        <v>762</v>
       </c>
       <c r="G249" t="s">
-        <v>869</v>
-      </c>
+        <v>880</v>
+      </c>
+      <c r="I249" s="14"/>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250">
@@ -9601,14 +9564,12 @@
         <v>20</v>
       </c>
       <c r="F250" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="G250" t="s">
-        <v>876</v>
-      </c>
-      <c r="I250" s="14" t="s">
-        <v>888</v>
-      </c>
+        <v>873</v>
+      </c>
+      <c r="I250" s="14"/>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A251">
@@ -9627,117 +9588,106 @@
         <v>20</v>
       </c>
       <c r="F251" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="G251" t="s">
-        <v>869</v>
-      </c>
-      <c r="I251" s="14" t="s">
-        <v>885</v>
-      </c>
+        <v>868</v>
+      </c>
+      <c r="I251" s="15"/>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A252">
-        <v>5155226</v>
-      </c>
-      <c r="B252" t="s">
-        <v>759</v>
-      </c>
-      <c r="C252" s="4" t="s">
-        <v>760</v>
-      </c>
-      <c r="D252">
-        <v>39</v>
-      </c>
-      <c r="E252" t="s">
-        <v>20</v>
-      </c>
-      <c r="F252" t="s">
-        <v>763</v>
+      <c r="A252" s="9">
+        <v>32143633</v>
+      </c>
+      <c r="B252" s="9" t="s">
+        <v>797</v>
+      </c>
+      <c r="C252" s="11" t="s">
+        <v>775</v>
+      </c>
+      <c r="D252" s="9">
+        <v>19</v>
+      </c>
+      <c r="E252" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F252" s="9" t="s">
+        <v>791</v>
       </c>
       <c r="G252" t="s">
-        <v>876</v>
-      </c>
-      <c r="I252" s="14" t="s">
-        <v>886</v>
-      </c>
+        <v>873</v>
+      </c>
+      <c r="I252" s="15"/>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A253">
-        <v>5155226</v>
-      </c>
-      <c r="B253" t="s">
-        <v>759</v>
-      </c>
-      <c r="C253" s="4" t="s">
-        <v>760</v>
-      </c>
-      <c r="D253">
-        <v>39</v>
-      </c>
-      <c r="E253" t="s">
-        <v>20</v>
-      </c>
-      <c r="F253" t="s">
-        <v>764</v>
+      <c r="A253" s="9">
+        <v>32143633</v>
+      </c>
+      <c r="B253" s="9" t="s">
+        <v>793</v>
+      </c>
+      <c r="C253" s="11" t="s">
+        <v>775</v>
+      </c>
+      <c r="D253" s="9">
+        <v>19</v>
+      </c>
+      <c r="E253" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F253" s="9" t="s">
+        <v>792</v>
       </c>
       <c r="G253" t="s">
-        <v>869</v>
-      </c>
-      <c r="I253" s="15" t="s">
-        <v>871</v>
-      </c>
+        <v>868</v>
+      </c>
+      <c r="I253" s="15"/>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A254" s="9">
-        <v>32143633</v>
+        <v>10827872</v>
       </c>
       <c r="B254" s="9" t="s">
-        <v>797</v>
+        <v>780</v>
       </c>
       <c r="C254" s="11" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="D254" s="9">
-        <v>19</v>
+        <v>174</v>
       </c>
       <c r="E254" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F254" s="9" t="s">
-        <v>791</v>
+        <v>782</v>
+      </c>
+      <c r="F254" s="10" t="s">
+        <v>794</v>
       </c>
       <c r="G254" t="s">
-        <v>869</v>
-      </c>
-      <c r="I254" s="15" t="s">
-        <v>887</v>
-      </c>
+        <v>868</v>
+      </c>
+      <c r="I254" s="15"/>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255" s="9">
-        <v>32143633</v>
+        <v>10827872</v>
       </c>
       <c r="B255" s="9" t="s">
-        <v>793</v>
+        <v>780</v>
       </c>
       <c r="C255" s="11" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="D255" s="9">
-        <v>19</v>
+        <v>174</v>
       </c>
       <c r="E255" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F255" s="9" t="s">
-        <v>792</v>
+        <v>11</v>
+      </c>
+      <c r="F255" s="10" t="s">
+        <v>795</v>
       </c>
       <c r="G255" t="s">
-        <v>869</v>
-      </c>
-      <c r="I255" s="15" t="s">
-        <v>889</v>
+        <v>868</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.2">
@@ -9754,327 +9704,287 @@
         <v>174</v>
       </c>
       <c r="E256" s="9" t="s">
-        <v>782</v>
+        <v>11</v>
       </c>
       <c r="F256" s="10" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="G256" t="s">
-        <v>869</v>
-      </c>
-      <c r="I256" s="15" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A257" s="9">
-        <v>10827872</v>
-      </c>
-      <c r="B257" s="9" t="s">
-        <v>780</v>
-      </c>
-      <c r="C257" s="11" t="s">
-        <v>781</v>
-      </c>
-      <c r="D257" s="9">
-        <v>174</v>
-      </c>
-      <c r="E257" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F257" s="10" t="s">
-        <v>795</v>
-      </c>
+        <v>868</v>
+      </c>
+    </row>
+    <row r="257" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G257" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A258" s="9">
-        <v>10827872</v>
-      </c>
-      <c r="B258" s="9" t="s">
-        <v>780</v>
-      </c>
-      <c r="C258" s="11" t="s">
-        <v>781</v>
-      </c>
-      <c r="D258" s="9">
-        <v>174</v>
-      </c>
-      <c r="E258" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F258" s="10" t="s">
-        <v>796</v>
-      </c>
+        <v>868</v>
+      </c>
+    </row>
+    <row r="258" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G258" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G258" xr:uid="{EAF680DE-1151-4AD4-9FAA-DA8D6B020224}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C21" r:id="rId1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
-    <hyperlink ref="C26" r:id="rId2" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
-    <hyperlink ref="C50" r:id="rId3" xr:uid="{00000000-0004-0000-0900-000002000000}"/>
-    <hyperlink ref="C2" r:id="rId4" xr:uid="{00000000-0004-0000-0900-000003000000}"/>
-    <hyperlink ref="C3" r:id="rId5" xr:uid="{00000000-0004-0000-0900-000004000000}"/>
-    <hyperlink ref="C10" r:id="rId6" xr:uid="{00000000-0004-0000-0900-000005000000}"/>
-    <hyperlink ref="C11" r:id="rId7" xr:uid="{00000000-0004-0000-0900-000006000000}"/>
-    <hyperlink ref="C13" r:id="rId8" xr:uid="{00000000-0004-0000-0900-000007000000}"/>
-    <hyperlink ref="C16" r:id="rId9" xr:uid="{00000000-0004-0000-0900-000008000000}"/>
-    <hyperlink ref="C18" r:id="rId10" xr:uid="{00000000-0004-0000-0900-000009000000}"/>
-    <hyperlink ref="C19" r:id="rId11" xr:uid="{00000000-0004-0000-0900-00000A000000}"/>
-    <hyperlink ref="C29" r:id="rId12" xr:uid="{00000000-0004-0000-0900-00000B000000}"/>
-    <hyperlink ref="C30" r:id="rId13" xr:uid="{00000000-0004-0000-0900-00000C000000}"/>
-    <hyperlink ref="C31" r:id="rId14" xr:uid="{00000000-0004-0000-0900-00000D000000}"/>
-    <hyperlink ref="C38" r:id="rId15" xr:uid="{00000000-0004-0000-0900-00000E000000}"/>
-    <hyperlink ref="C39" r:id="rId16" xr:uid="{00000000-0004-0000-0900-00000F000000}"/>
-    <hyperlink ref="C40" r:id="rId17" xr:uid="{00000000-0004-0000-0900-000010000000}"/>
-    <hyperlink ref="C41" r:id="rId18" xr:uid="{00000000-0004-0000-0900-000011000000}"/>
-    <hyperlink ref="C42" r:id="rId19" xr:uid="{00000000-0004-0000-0900-000012000000}"/>
-    <hyperlink ref="C43" r:id="rId20" xr:uid="{00000000-0004-0000-0900-000013000000}"/>
-    <hyperlink ref="C45" r:id="rId21" xr:uid="{00000000-0004-0000-0900-000014000000}"/>
-    <hyperlink ref="C46" r:id="rId22" xr:uid="{00000000-0004-0000-0900-000015000000}"/>
-    <hyperlink ref="C48" r:id="rId23" xr:uid="{00000000-0004-0000-0900-000016000000}"/>
-    <hyperlink ref="C51" r:id="rId24" xr:uid="{00000000-0004-0000-0900-000017000000}"/>
-    <hyperlink ref="C52" r:id="rId25" xr:uid="{00000000-0004-0000-0900-000018000000}"/>
-    <hyperlink ref="C55" r:id="rId26" xr:uid="{00000000-0004-0000-0900-000019000000}"/>
-    <hyperlink ref="C4" r:id="rId27" xr:uid="{00000000-0004-0000-0900-00001A000000}"/>
-    <hyperlink ref="C5" r:id="rId28" xr:uid="{00000000-0004-0000-0900-00001B000000}"/>
-    <hyperlink ref="C23" r:id="rId29" xr:uid="{00000000-0004-0000-0900-00001C000000}"/>
-    <hyperlink ref="C17" r:id="rId30" xr:uid="{00000000-0004-0000-0900-00001D000000}"/>
-    <hyperlink ref="C22" r:id="rId31" xr:uid="{00000000-0004-0000-0900-00001E000000}"/>
-    <hyperlink ref="C24" r:id="rId32" xr:uid="{00000000-0004-0000-0900-00001F000000}"/>
-    <hyperlink ref="C25" r:id="rId33" xr:uid="{00000000-0004-0000-0900-000020000000}"/>
-    <hyperlink ref="C32" r:id="rId34" xr:uid="{00000000-0004-0000-0900-000021000000}"/>
-    <hyperlink ref="C44" r:id="rId35" xr:uid="{00000000-0004-0000-0900-000022000000}"/>
-    <hyperlink ref="C49" r:id="rId36" xr:uid="{00000000-0004-0000-0900-000023000000}"/>
-    <hyperlink ref="C54" r:id="rId37" xr:uid="{00000000-0004-0000-0900-000024000000}"/>
-    <hyperlink ref="C56" r:id="rId38" xr:uid="{00000000-0004-0000-0900-000025000000}"/>
-    <hyperlink ref="C33" r:id="rId39" xr:uid="{00000000-0004-0000-0900-000026000000}"/>
-    <hyperlink ref="C34" r:id="rId40" xr:uid="{00000000-0004-0000-0900-000027000000}"/>
-    <hyperlink ref="C35" r:id="rId41" xr:uid="{00000000-0004-0000-0900-000028000000}"/>
-    <hyperlink ref="C27" r:id="rId42" xr:uid="{00000000-0004-0000-0900-000029000000}"/>
-    <hyperlink ref="C28" r:id="rId43" xr:uid="{00000000-0004-0000-0900-00002A000000}"/>
-    <hyperlink ref="C47" r:id="rId44" xr:uid="{00000000-0004-0000-0900-00002B000000}"/>
-    <hyperlink ref="C6" r:id="rId45" xr:uid="{00000000-0004-0000-0900-00002C000000}"/>
-    <hyperlink ref="C7" r:id="rId46" xr:uid="{00000000-0004-0000-0900-00002D000000}"/>
-    <hyperlink ref="C8" r:id="rId47" xr:uid="{00000000-0004-0000-0900-00002E000000}"/>
-    <hyperlink ref="C9" r:id="rId48" xr:uid="{00000000-0004-0000-0900-00002F000000}"/>
-    <hyperlink ref="C12" r:id="rId49" xr:uid="{00000000-0004-0000-0900-000030000000}"/>
-    <hyperlink ref="C14" r:id="rId50" xr:uid="{00000000-0004-0000-0900-000031000000}"/>
-    <hyperlink ref="C15" r:id="rId51" xr:uid="{00000000-0004-0000-0900-000032000000}"/>
-    <hyperlink ref="C20" r:id="rId52" xr:uid="{00000000-0004-0000-0900-000033000000}"/>
-    <hyperlink ref="C53" r:id="rId53" xr:uid="{00000000-0004-0000-0900-000034000000}"/>
-    <hyperlink ref="C36" r:id="rId54" xr:uid="{00000000-0004-0000-0900-000035000000}"/>
-    <hyperlink ref="C57" r:id="rId55" xr:uid="{00000000-0004-0000-0900-000036000000}"/>
-    <hyperlink ref="C59" r:id="rId56" xr:uid="{00000000-0004-0000-0900-000037000000}"/>
-    <hyperlink ref="C65" r:id="rId57" xr:uid="{00000000-0004-0000-0900-000038000000}"/>
-    <hyperlink ref="C68" r:id="rId58" display="https://stackoverflow.com/questions/2883140" xr:uid="{00000000-0004-0000-0900-000039000000}"/>
-    <hyperlink ref="C72" r:id="rId59" xr:uid="{00000000-0004-0000-0900-00003A000000}"/>
-    <hyperlink ref="C74" r:id="rId60" xr:uid="{00000000-0004-0000-0900-00003B000000}"/>
-    <hyperlink ref="C76" r:id="rId61" xr:uid="{00000000-0004-0000-0900-00003C000000}"/>
-    <hyperlink ref="C78" r:id="rId62" xr:uid="{00000000-0004-0000-0900-00003D000000}"/>
-    <hyperlink ref="C82" r:id="rId63" xr:uid="{00000000-0004-0000-0900-00003E000000}"/>
-    <hyperlink ref="C84" r:id="rId64" xr:uid="{00000000-0004-0000-0900-00003F000000}"/>
-    <hyperlink ref="C86" r:id="rId65" xr:uid="{00000000-0004-0000-0900-000040000000}"/>
-    <hyperlink ref="C87" r:id="rId66" xr:uid="{00000000-0004-0000-0900-000041000000}"/>
-    <hyperlink ref="C90" r:id="rId67" xr:uid="{00000000-0004-0000-0900-000042000000}"/>
-    <hyperlink ref="C91" r:id="rId68" xr:uid="{00000000-0004-0000-0900-000043000000}"/>
-    <hyperlink ref="C93" r:id="rId69" xr:uid="{00000000-0004-0000-0900-000044000000}"/>
-    <hyperlink ref="C95" r:id="rId70" xr:uid="{00000000-0004-0000-0900-000045000000}"/>
-    <hyperlink ref="C100" r:id="rId71" xr:uid="{00000000-0004-0000-0900-000046000000}"/>
-    <hyperlink ref="C102" r:id="rId72" xr:uid="{00000000-0004-0000-0900-000047000000}"/>
-    <hyperlink ref="C104" r:id="rId73" xr:uid="{00000000-0004-0000-0900-000048000000}"/>
-    <hyperlink ref="C107" r:id="rId74" xr:uid="{00000000-0004-0000-0900-000049000000}"/>
-    <hyperlink ref="C108" r:id="rId75" xr:uid="{00000000-0004-0000-0900-00004A000000}"/>
-    <hyperlink ref="C111" r:id="rId76" xr:uid="{00000000-0004-0000-0900-00004B000000}"/>
-    <hyperlink ref="C115" r:id="rId77" xr:uid="{00000000-0004-0000-0900-00004C000000}"/>
-    <hyperlink ref="C117" r:id="rId78" xr:uid="{00000000-0004-0000-0900-00004D000000}"/>
-    <hyperlink ref="C119" r:id="rId79" xr:uid="{00000000-0004-0000-0900-00004E000000}"/>
-    <hyperlink ref="C121" r:id="rId80" xr:uid="{00000000-0004-0000-0900-00004F000000}"/>
-    <hyperlink ref="C123" r:id="rId81" xr:uid="{00000000-0004-0000-0900-000050000000}"/>
-    <hyperlink ref="C125" r:id="rId82" xr:uid="{00000000-0004-0000-0900-000051000000}"/>
-    <hyperlink ref="C130" r:id="rId83" xr:uid="{00000000-0004-0000-0900-000052000000}"/>
-    <hyperlink ref="C131" r:id="rId84" xr:uid="{00000000-0004-0000-0900-000053000000}"/>
-    <hyperlink ref="C134" r:id="rId85" xr:uid="{00000000-0004-0000-0900-000054000000}"/>
-    <hyperlink ref="C136" r:id="rId86" xr:uid="{00000000-0004-0000-0900-000055000000}"/>
-    <hyperlink ref="C137" r:id="rId87" xr:uid="{00000000-0004-0000-0900-000056000000}"/>
-    <hyperlink ref="C141" r:id="rId88" xr:uid="{00000000-0004-0000-0900-000057000000}"/>
-    <hyperlink ref="C143" r:id="rId89" xr:uid="{00000000-0004-0000-0900-000058000000}"/>
-    <hyperlink ref="C144" r:id="rId90" xr:uid="{00000000-0004-0000-0900-000059000000}"/>
-    <hyperlink ref="C146" r:id="rId91" xr:uid="{00000000-0004-0000-0900-00005A000000}"/>
-    <hyperlink ref="C151" r:id="rId92" xr:uid="{00000000-0004-0000-0900-00005B000000}"/>
-    <hyperlink ref="C154" r:id="rId93" xr:uid="{00000000-0004-0000-0900-00005C000000}"/>
-    <hyperlink ref="C158" r:id="rId94" xr:uid="{00000000-0004-0000-0900-00005D000000}"/>
-    <hyperlink ref="C159" r:id="rId95" xr:uid="{00000000-0004-0000-0900-00005E000000}"/>
-    <hyperlink ref="C160" r:id="rId96" xr:uid="{00000000-0004-0000-0900-00005F000000}"/>
-    <hyperlink ref="C164" r:id="rId97" xr:uid="{00000000-0004-0000-0900-000060000000}"/>
-    <hyperlink ref="C167" r:id="rId98" xr:uid="{00000000-0004-0000-0900-000061000000}"/>
-    <hyperlink ref="C169" r:id="rId99" xr:uid="{00000000-0004-0000-0900-000062000000}"/>
-    <hyperlink ref="C171" r:id="rId100" xr:uid="{00000000-0004-0000-0900-000063000000}"/>
-    <hyperlink ref="C174" r:id="rId101" xr:uid="{00000000-0004-0000-0900-000064000000}"/>
-    <hyperlink ref="C176" r:id="rId102" xr:uid="{00000000-0004-0000-0900-000065000000}"/>
-    <hyperlink ref="C177" r:id="rId103" xr:uid="{00000000-0004-0000-0900-000066000000}"/>
-    <hyperlink ref="C178" r:id="rId104" xr:uid="{00000000-0004-0000-0900-000067000000}"/>
-    <hyperlink ref="C180" r:id="rId105" xr:uid="{00000000-0004-0000-0900-000068000000}"/>
-    <hyperlink ref="C183" r:id="rId106" xr:uid="{00000000-0004-0000-0900-000069000000}"/>
-    <hyperlink ref="C186" r:id="rId107" xr:uid="{00000000-0004-0000-0900-00006A000000}"/>
-    <hyperlink ref="C188" r:id="rId108" xr:uid="{00000000-0004-0000-0900-00006B000000}"/>
-    <hyperlink ref="C190" r:id="rId109" xr:uid="{00000000-0004-0000-0900-00006C000000}"/>
-    <hyperlink ref="C197" r:id="rId110" xr:uid="{00000000-0004-0000-0900-00006D000000}"/>
-    <hyperlink ref="C198" r:id="rId111" xr:uid="{00000000-0004-0000-0900-00006E000000}"/>
-    <hyperlink ref="C199" r:id="rId112" xr:uid="{00000000-0004-0000-0900-00006F000000}"/>
-    <hyperlink ref="C205" r:id="rId113" xr:uid="{00000000-0004-0000-0900-000070000000}"/>
-    <hyperlink ref="C206" r:id="rId114" xr:uid="{00000000-0004-0000-0900-000071000000}"/>
-    <hyperlink ref="C208" r:id="rId115" xr:uid="{00000000-0004-0000-0900-000072000000}"/>
-    <hyperlink ref="C210" r:id="rId116" xr:uid="{00000000-0004-0000-0900-000073000000}"/>
-    <hyperlink ref="C212" r:id="rId117" xr:uid="{00000000-0004-0000-0900-000074000000}"/>
-    <hyperlink ref="C216" r:id="rId118" xr:uid="{00000000-0004-0000-0900-000075000000}"/>
-    <hyperlink ref="C217" r:id="rId119" xr:uid="{00000000-0004-0000-0900-000076000000}"/>
-    <hyperlink ref="C219" r:id="rId120" xr:uid="{00000000-0004-0000-0900-000077000000}"/>
-    <hyperlink ref="C222" r:id="rId121" xr:uid="{00000000-0004-0000-0900-000078000000}"/>
-    <hyperlink ref="C224" r:id="rId122" xr:uid="{00000000-0004-0000-0900-000079000000}"/>
-    <hyperlink ref="C226" r:id="rId123" xr:uid="{00000000-0004-0000-0900-00007A000000}"/>
-    <hyperlink ref="C232" r:id="rId124" xr:uid="{00000000-0004-0000-0900-00007B000000}"/>
-    <hyperlink ref="C237" r:id="rId125" xr:uid="{00000000-0004-0000-0900-00007C000000}"/>
-    <hyperlink ref="C67" r:id="rId126" xr:uid="{00000000-0004-0000-0900-00007D000000}"/>
-    <hyperlink ref="C73" r:id="rId127" xr:uid="{00000000-0004-0000-0900-00007E000000}"/>
-    <hyperlink ref="C77" r:id="rId128" xr:uid="{00000000-0004-0000-0900-00007F000000}"/>
-    <hyperlink ref="C80" r:id="rId129" xr:uid="{00000000-0004-0000-0900-000080000000}"/>
-    <hyperlink ref="C98" r:id="rId130" xr:uid="{00000000-0004-0000-0900-000081000000}"/>
-    <hyperlink ref="C105" r:id="rId131" xr:uid="{00000000-0004-0000-0900-000082000000}"/>
-    <hyperlink ref="C110" r:id="rId132" xr:uid="{00000000-0004-0000-0900-000083000000}"/>
-    <hyperlink ref="C116" r:id="rId133" xr:uid="{00000000-0004-0000-0900-000084000000}"/>
-    <hyperlink ref="C120" r:id="rId134" xr:uid="{00000000-0004-0000-0900-000085000000}"/>
-    <hyperlink ref="C122" r:id="rId135" xr:uid="{00000000-0004-0000-0900-000086000000}"/>
-    <hyperlink ref="C124" r:id="rId136" xr:uid="{00000000-0004-0000-0900-000087000000}"/>
-    <hyperlink ref="C128" r:id="rId137" xr:uid="{00000000-0004-0000-0900-000088000000}"/>
-    <hyperlink ref="C132" r:id="rId138" xr:uid="{00000000-0004-0000-0900-000089000000}"/>
-    <hyperlink ref="C135" r:id="rId139" xr:uid="{00000000-0004-0000-0900-00008A000000}"/>
-    <hyperlink ref="C139" r:id="rId140" xr:uid="{00000000-0004-0000-0900-00008B000000}"/>
-    <hyperlink ref="C142" r:id="rId141" xr:uid="{00000000-0004-0000-0900-00008C000000}"/>
-    <hyperlink ref="C145" r:id="rId142" xr:uid="{00000000-0004-0000-0900-00008D000000}"/>
-    <hyperlink ref="C148" r:id="rId143" xr:uid="{00000000-0004-0000-0900-00008E000000}"/>
-    <hyperlink ref="C149" r:id="rId144" xr:uid="{00000000-0004-0000-0900-00008F000000}"/>
-    <hyperlink ref="C156" r:id="rId145" xr:uid="{00000000-0004-0000-0900-000090000000}"/>
-    <hyperlink ref="C162" r:id="rId146" xr:uid="{00000000-0004-0000-0900-000091000000}"/>
-    <hyperlink ref="C168" r:id="rId147" xr:uid="{00000000-0004-0000-0900-000092000000}"/>
-    <hyperlink ref="C173" r:id="rId148" xr:uid="{00000000-0004-0000-0900-000093000000}"/>
-    <hyperlink ref="C175" r:id="rId149" xr:uid="{00000000-0004-0000-0900-000094000000}"/>
-    <hyperlink ref="C194" r:id="rId150" xr:uid="{00000000-0004-0000-0900-000095000000}"/>
-    <hyperlink ref="C209" r:id="rId151" xr:uid="{00000000-0004-0000-0900-000096000000}"/>
-    <hyperlink ref="C211" r:id="rId152" xr:uid="{00000000-0004-0000-0900-000097000000}"/>
-    <hyperlink ref="C214" r:id="rId153" xr:uid="{00000000-0004-0000-0900-000098000000}"/>
-    <hyperlink ref="C243" r:id="rId154" xr:uid="{00000000-0004-0000-0900-000099000000}"/>
-    <hyperlink ref="C246" r:id="rId155" xr:uid="{00000000-0004-0000-0900-00009A000000}"/>
-    <hyperlink ref="C247" r:id="rId156" xr:uid="{00000000-0004-0000-0900-00009B000000}"/>
-    <hyperlink ref="C238" r:id="rId157" xr:uid="{00000000-0004-0000-0900-00009C000000}"/>
-    <hyperlink ref="C239" r:id="rId158" xr:uid="{00000000-0004-0000-0900-00009D000000}"/>
-    <hyperlink ref="C241" r:id="rId159" xr:uid="{00000000-0004-0000-0900-00009E000000}"/>
-    <hyperlink ref="C242" r:id="rId160" xr:uid="{00000000-0004-0000-0900-00009F000000}"/>
-    <hyperlink ref="C245" r:id="rId161" xr:uid="{00000000-0004-0000-0900-0000A0000000}"/>
-    <hyperlink ref="C240" r:id="rId162" xr:uid="{00000000-0004-0000-0900-0000A1000000}"/>
-    <hyperlink ref="C244" r:id="rId163" xr:uid="{00000000-0004-0000-0900-0000A2000000}"/>
-    <hyperlink ref="C58" r:id="rId164" xr:uid="{00000000-0004-0000-0900-0000A3000000}"/>
-    <hyperlink ref="C60" r:id="rId165" xr:uid="{00000000-0004-0000-0900-0000A4000000}"/>
-    <hyperlink ref="C66" r:id="rId166" xr:uid="{00000000-0004-0000-0900-0000A5000000}"/>
-    <hyperlink ref="C69" r:id="rId167" xr:uid="{00000000-0004-0000-0900-0000A6000000}"/>
-    <hyperlink ref="C75" r:id="rId168" xr:uid="{00000000-0004-0000-0900-0000A7000000}"/>
-    <hyperlink ref="C79" r:id="rId169" xr:uid="{00000000-0004-0000-0900-0000A8000000}"/>
-    <hyperlink ref="C81" r:id="rId170" xr:uid="{00000000-0004-0000-0900-0000A9000000}"/>
-    <hyperlink ref="C83" r:id="rId171" xr:uid="{00000000-0004-0000-0900-0000AA000000}"/>
-    <hyperlink ref="C85" r:id="rId172" xr:uid="{00000000-0004-0000-0900-0000AB000000}"/>
-    <hyperlink ref="C88" r:id="rId173" xr:uid="{00000000-0004-0000-0900-0000AC000000}"/>
-    <hyperlink ref="C92" r:id="rId174" xr:uid="{00000000-0004-0000-0900-0000AD000000}"/>
-    <hyperlink ref="C94" r:id="rId175" xr:uid="{00000000-0004-0000-0900-0000AE000000}"/>
-    <hyperlink ref="C101" r:id="rId176" xr:uid="{00000000-0004-0000-0900-0000AF000000}"/>
-    <hyperlink ref="C103" r:id="rId177" xr:uid="{00000000-0004-0000-0900-0000B0000000}"/>
-    <hyperlink ref="C127" r:id="rId178" xr:uid="{00000000-0004-0000-0900-0000B1000000}"/>
-    <hyperlink ref="C129" r:id="rId179" xr:uid="{00000000-0004-0000-0900-0000B2000000}"/>
-    <hyperlink ref="C138" r:id="rId180" xr:uid="{00000000-0004-0000-0900-0000B3000000}"/>
-    <hyperlink ref="C140" r:id="rId181" xr:uid="{00000000-0004-0000-0900-0000B4000000}"/>
-    <hyperlink ref="C147" r:id="rId182" xr:uid="{00000000-0004-0000-0900-0000B5000000}"/>
-    <hyperlink ref="C152" r:id="rId183" xr:uid="{00000000-0004-0000-0900-0000B6000000}"/>
-    <hyperlink ref="C155" r:id="rId184" xr:uid="{00000000-0004-0000-0900-0000B7000000}"/>
-    <hyperlink ref="C157" r:id="rId185" xr:uid="{00000000-0004-0000-0900-0000B8000000}"/>
-    <hyperlink ref="C170" r:id="rId186" xr:uid="{00000000-0004-0000-0900-0000B9000000}"/>
-    <hyperlink ref="C172" r:id="rId187" xr:uid="{00000000-0004-0000-0900-0000BA000000}"/>
-    <hyperlink ref="C179" r:id="rId188" xr:uid="{00000000-0004-0000-0900-0000BB000000}"/>
-    <hyperlink ref="C181" r:id="rId189" xr:uid="{00000000-0004-0000-0900-0000BC000000}"/>
-    <hyperlink ref="C191" r:id="rId190" xr:uid="{00000000-0004-0000-0900-0000BD000000}"/>
-    <hyperlink ref="C200" r:id="rId191" xr:uid="{00000000-0004-0000-0900-0000BE000000}"/>
-    <hyperlink ref="C213" r:id="rId192" xr:uid="{00000000-0004-0000-0900-0000BF000000}"/>
-    <hyperlink ref="C218" r:id="rId193" xr:uid="{00000000-0004-0000-0900-0000C0000000}"/>
-    <hyperlink ref="C220" r:id="rId194" xr:uid="{00000000-0004-0000-0900-0000C1000000}"/>
-    <hyperlink ref="C225" r:id="rId195" xr:uid="{00000000-0004-0000-0900-0000C2000000}"/>
-    <hyperlink ref="C227" r:id="rId196" xr:uid="{00000000-0004-0000-0900-0000C3000000}"/>
-    <hyperlink ref="C61" r:id="rId197" xr:uid="{00000000-0004-0000-0900-0000C4000000}"/>
-    <hyperlink ref="C63" r:id="rId198" xr:uid="{00000000-0004-0000-0900-0000C5000000}"/>
-    <hyperlink ref="C62" r:id="rId199" xr:uid="{00000000-0004-0000-0900-0000C6000000}"/>
-    <hyperlink ref="C64" r:id="rId200" xr:uid="{00000000-0004-0000-0900-0000C7000000}"/>
-    <hyperlink ref="C70" r:id="rId201" xr:uid="{00000000-0004-0000-0900-0000C8000000}"/>
-    <hyperlink ref="C71" r:id="rId202" xr:uid="{00000000-0004-0000-0900-0000C9000000}"/>
-    <hyperlink ref="C89" r:id="rId203" xr:uid="{00000000-0004-0000-0900-0000CA000000}"/>
-    <hyperlink ref="C99" r:id="rId204" xr:uid="{00000000-0004-0000-0900-0000CB000000}"/>
-    <hyperlink ref="C106" r:id="rId205" xr:uid="{00000000-0004-0000-0900-0000CC000000}"/>
-    <hyperlink ref="C109" r:id="rId206" xr:uid="{00000000-0004-0000-0900-0000CD000000}"/>
-    <hyperlink ref="C112" r:id="rId207" xr:uid="{00000000-0004-0000-0900-0000CE000000}"/>
-    <hyperlink ref="C113" r:id="rId208" xr:uid="{00000000-0004-0000-0900-0000CF000000}"/>
-    <hyperlink ref="C114" r:id="rId209" xr:uid="{00000000-0004-0000-0900-0000D0000000}"/>
-    <hyperlink ref="C118" r:id="rId210" xr:uid="{00000000-0004-0000-0900-0000D1000000}"/>
-    <hyperlink ref="C150" r:id="rId211" xr:uid="{00000000-0004-0000-0900-0000D2000000}"/>
-    <hyperlink ref="C153" r:id="rId212" xr:uid="{00000000-0004-0000-0900-0000D3000000}"/>
-    <hyperlink ref="C161" r:id="rId213" xr:uid="{00000000-0004-0000-0900-0000D4000000}"/>
-    <hyperlink ref="C163" r:id="rId214" xr:uid="{00000000-0004-0000-0900-0000D5000000}"/>
-    <hyperlink ref="C165" r:id="rId215" xr:uid="{00000000-0004-0000-0900-0000D6000000}"/>
-    <hyperlink ref="C166" r:id="rId216" xr:uid="{00000000-0004-0000-0900-0000D7000000}"/>
-    <hyperlink ref="C182" r:id="rId217" xr:uid="{00000000-0004-0000-0900-0000D8000000}"/>
-    <hyperlink ref="C184" r:id="rId218" xr:uid="{00000000-0004-0000-0900-0000D9000000}"/>
-    <hyperlink ref="C185" r:id="rId219" xr:uid="{00000000-0004-0000-0900-0000DA000000}"/>
-    <hyperlink ref="C187" r:id="rId220" xr:uid="{00000000-0004-0000-0900-0000DB000000}"/>
-    <hyperlink ref="C189" r:id="rId221" xr:uid="{00000000-0004-0000-0900-0000DC000000}"/>
-    <hyperlink ref="C192" r:id="rId222" xr:uid="{00000000-0004-0000-0900-0000DD000000}"/>
-    <hyperlink ref="C193" r:id="rId223" xr:uid="{00000000-0004-0000-0900-0000DE000000}"/>
-    <hyperlink ref="C195" r:id="rId224" xr:uid="{00000000-0004-0000-0900-0000DF000000}"/>
-    <hyperlink ref="C196" r:id="rId225" xr:uid="{00000000-0004-0000-0900-0000E0000000}"/>
-    <hyperlink ref="C201" r:id="rId226" xr:uid="{00000000-0004-0000-0900-0000E1000000}"/>
-    <hyperlink ref="C202" r:id="rId227" xr:uid="{00000000-0004-0000-0900-0000E2000000}"/>
-    <hyperlink ref="C203" r:id="rId228" xr:uid="{00000000-0004-0000-0900-0000E3000000}"/>
-    <hyperlink ref="C204" r:id="rId229" xr:uid="{00000000-0004-0000-0900-0000E4000000}"/>
-    <hyperlink ref="C207" r:id="rId230" xr:uid="{00000000-0004-0000-0900-0000E5000000}"/>
-    <hyperlink ref="C221" r:id="rId231" xr:uid="{00000000-0004-0000-0900-0000E6000000}"/>
-    <hyperlink ref="C223" r:id="rId232" xr:uid="{00000000-0004-0000-0900-0000E7000000}"/>
-    <hyperlink ref="C229" r:id="rId233" xr:uid="{00000000-0004-0000-0900-0000E8000000}"/>
-    <hyperlink ref="C233" r:id="rId234" xr:uid="{00000000-0004-0000-0900-0000E9000000}"/>
-    <hyperlink ref="C234" r:id="rId235" xr:uid="{00000000-0004-0000-0900-0000EA000000}"/>
-    <hyperlink ref="C235" r:id="rId236" xr:uid="{00000000-0004-0000-0900-0000EB000000}"/>
-    <hyperlink ref="C236" r:id="rId237" xr:uid="{00000000-0004-0000-0900-0000EC000000}"/>
-    <hyperlink ref="C248" r:id="rId238" xr:uid="{00000000-0004-0000-0900-0000ED000000}"/>
-    <hyperlink ref="C249" r:id="rId239" xr:uid="{00000000-0004-0000-0900-0000EE000000}"/>
-    <hyperlink ref="C250" r:id="rId240" xr:uid="{00000000-0004-0000-0900-0000EF000000}"/>
-    <hyperlink ref="C251" r:id="rId241" xr:uid="{00000000-0004-0000-0900-0000F0000000}"/>
-    <hyperlink ref="C252" r:id="rId242" xr:uid="{00000000-0004-0000-0900-0000F1000000}"/>
-    <hyperlink ref="C253" r:id="rId243" xr:uid="{00000000-0004-0000-0900-0000F2000000}"/>
-    <hyperlink ref="C228" r:id="rId244" xr:uid="{00000000-0004-0000-0900-0000F3000000}"/>
-    <hyperlink ref="C126" r:id="rId245" xr:uid="{00000000-0004-0000-0900-0000F4000000}"/>
-    <hyperlink ref="C256" r:id="rId246" xr:uid="{00000000-0004-0000-0900-0000F5000000}"/>
-    <hyperlink ref="C230" r:id="rId247" xr:uid="{00000000-0004-0000-0900-0000F6000000}"/>
-    <hyperlink ref="C231" r:id="rId248" xr:uid="{00000000-0004-0000-0900-0000F7000000}"/>
-    <hyperlink ref="C254" r:id="rId249" xr:uid="{00000000-0004-0000-0900-0000F8000000}"/>
-    <hyperlink ref="C255" r:id="rId250" xr:uid="{00000000-0004-0000-0900-0000F9000000}"/>
-    <hyperlink ref="C257" r:id="rId251" xr:uid="{00000000-0004-0000-0900-0000FA000000}"/>
-    <hyperlink ref="C258" r:id="rId252" xr:uid="{00000000-0004-0000-0900-0000FB000000}"/>
-    <hyperlink ref="C215" r:id="rId253" xr:uid="{00000000-0004-0000-0900-0000FC000000}"/>
-    <hyperlink ref="C96" r:id="rId254" xr:uid="{00000000-0004-0000-0900-0000FD000000}"/>
-    <hyperlink ref="C97" r:id="rId255" xr:uid="{00000000-0004-0000-0900-0000FE000000}"/>
-    <hyperlink ref="C133" r:id="rId256" xr:uid="{00000000-0004-0000-0900-0000FF000000}"/>
-    <hyperlink ref="C37" r:id="rId257" xr:uid="{00000000-0004-0000-0900-000000010000}"/>
+    <hyperlink ref="C37" r:id="rId1" xr:uid="{00000000-0004-0000-0900-000000010000}"/>
+    <hyperlink ref="C132" r:id="rId2" xr:uid="{00000000-0004-0000-0900-0000FF000000}"/>
+    <hyperlink ref="C96" r:id="rId3" xr:uid="{00000000-0004-0000-0900-0000FE000000}"/>
+    <hyperlink ref="C95" r:id="rId4" xr:uid="{00000000-0004-0000-0900-0000FD000000}"/>
+    <hyperlink ref="C214" r:id="rId5" xr:uid="{00000000-0004-0000-0900-0000FC000000}"/>
+    <hyperlink ref="C256" r:id="rId6" xr:uid="{00000000-0004-0000-0900-0000FB000000}"/>
+    <hyperlink ref="C255" r:id="rId7" xr:uid="{00000000-0004-0000-0900-0000FA000000}"/>
+    <hyperlink ref="C253" r:id="rId8" xr:uid="{00000000-0004-0000-0900-0000F9000000}"/>
+    <hyperlink ref="C252" r:id="rId9" xr:uid="{00000000-0004-0000-0900-0000F8000000}"/>
+    <hyperlink ref="C229" r:id="rId10" xr:uid="{00000000-0004-0000-0900-0000F7000000}"/>
+    <hyperlink ref="C228" r:id="rId11" xr:uid="{00000000-0004-0000-0900-0000F6000000}"/>
+    <hyperlink ref="C254" r:id="rId12" xr:uid="{00000000-0004-0000-0900-0000F5000000}"/>
+    <hyperlink ref="C125" r:id="rId13" xr:uid="{00000000-0004-0000-0900-0000F4000000}"/>
+    <hyperlink ref="C226" r:id="rId14" xr:uid="{00000000-0004-0000-0900-0000F3000000}"/>
+    <hyperlink ref="C251" r:id="rId15" xr:uid="{00000000-0004-0000-0900-0000F2000000}"/>
+    <hyperlink ref="C250" r:id="rId16" xr:uid="{00000000-0004-0000-0900-0000F1000000}"/>
+    <hyperlink ref="C249" r:id="rId17" xr:uid="{00000000-0004-0000-0900-0000F0000000}"/>
+    <hyperlink ref="C248" r:id="rId18" xr:uid="{00000000-0004-0000-0900-0000EF000000}"/>
+    <hyperlink ref="C247" r:id="rId19" xr:uid="{00000000-0004-0000-0900-0000EE000000}"/>
+    <hyperlink ref="C246" r:id="rId20" xr:uid="{00000000-0004-0000-0900-0000ED000000}"/>
+    <hyperlink ref="C234" r:id="rId21" xr:uid="{00000000-0004-0000-0900-0000EC000000}"/>
+    <hyperlink ref="C233" r:id="rId22" xr:uid="{00000000-0004-0000-0900-0000EB000000}"/>
+    <hyperlink ref="C232" r:id="rId23" xr:uid="{00000000-0004-0000-0900-0000EA000000}"/>
+    <hyperlink ref="C231" r:id="rId24" xr:uid="{00000000-0004-0000-0900-0000E9000000}"/>
+    <hyperlink ref="C227" r:id="rId25" xr:uid="{00000000-0004-0000-0900-0000E8000000}"/>
+    <hyperlink ref="C221" r:id="rId26" xr:uid="{00000000-0004-0000-0900-0000E7000000}"/>
+    <hyperlink ref="C219" r:id="rId27" xr:uid="{00000000-0004-0000-0900-0000E6000000}"/>
+    <hyperlink ref="C206" r:id="rId28" xr:uid="{00000000-0004-0000-0900-0000E5000000}"/>
+    <hyperlink ref="C203" r:id="rId29" xr:uid="{00000000-0004-0000-0900-0000E4000000}"/>
+    <hyperlink ref="C202" r:id="rId30" xr:uid="{00000000-0004-0000-0900-0000E3000000}"/>
+    <hyperlink ref="C201" r:id="rId31" xr:uid="{00000000-0004-0000-0900-0000E2000000}"/>
+    <hyperlink ref="C200" r:id="rId32" xr:uid="{00000000-0004-0000-0900-0000E1000000}"/>
+    <hyperlink ref="C195" r:id="rId33" xr:uid="{00000000-0004-0000-0900-0000E0000000}"/>
+    <hyperlink ref="C194" r:id="rId34" xr:uid="{00000000-0004-0000-0900-0000DF000000}"/>
+    <hyperlink ref="C192" r:id="rId35" xr:uid="{00000000-0004-0000-0900-0000DE000000}"/>
+    <hyperlink ref="C191" r:id="rId36" xr:uid="{00000000-0004-0000-0900-0000DD000000}"/>
+    <hyperlink ref="C188" r:id="rId37" xr:uid="{00000000-0004-0000-0900-0000DC000000}"/>
+    <hyperlink ref="C186" r:id="rId38" xr:uid="{00000000-0004-0000-0900-0000DB000000}"/>
+    <hyperlink ref="C184" r:id="rId39" xr:uid="{00000000-0004-0000-0900-0000DA000000}"/>
+    <hyperlink ref="C183" r:id="rId40" xr:uid="{00000000-0004-0000-0900-0000D9000000}"/>
+    <hyperlink ref="C181" r:id="rId41" xr:uid="{00000000-0004-0000-0900-0000D8000000}"/>
+    <hyperlink ref="C165" r:id="rId42" xr:uid="{00000000-0004-0000-0900-0000D7000000}"/>
+    <hyperlink ref="C164" r:id="rId43" xr:uid="{00000000-0004-0000-0900-0000D6000000}"/>
+    <hyperlink ref="C162" r:id="rId44" xr:uid="{00000000-0004-0000-0900-0000D5000000}"/>
+    <hyperlink ref="C160" r:id="rId45" xr:uid="{00000000-0004-0000-0900-0000D4000000}"/>
+    <hyperlink ref="C152" r:id="rId46" xr:uid="{00000000-0004-0000-0900-0000D3000000}"/>
+    <hyperlink ref="C149" r:id="rId47" xr:uid="{00000000-0004-0000-0900-0000D2000000}"/>
+    <hyperlink ref="C117" r:id="rId48" xr:uid="{00000000-0004-0000-0900-0000D1000000}"/>
+    <hyperlink ref="C113" r:id="rId49" xr:uid="{00000000-0004-0000-0900-0000D0000000}"/>
+    <hyperlink ref="C112" r:id="rId50" xr:uid="{00000000-0004-0000-0900-0000CF000000}"/>
+    <hyperlink ref="C111" r:id="rId51" xr:uid="{00000000-0004-0000-0900-0000CE000000}"/>
+    <hyperlink ref="C108" r:id="rId52" xr:uid="{00000000-0004-0000-0900-0000CD000000}"/>
+    <hyperlink ref="C105" r:id="rId53" xr:uid="{00000000-0004-0000-0900-0000CC000000}"/>
+    <hyperlink ref="C98" r:id="rId54" xr:uid="{00000000-0004-0000-0900-0000CB000000}"/>
+    <hyperlink ref="C88" r:id="rId55" xr:uid="{00000000-0004-0000-0900-0000CA000000}"/>
+    <hyperlink ref="C70" r:id="rId56" xr:uid="{00000000-0004-0000-0900-0000C9000000}"/>
+    <hyperlink ref="C69" r:id="rId57" xr:uid="{00000000-0004-0000-0900-0000C8000000}"/>
+    <hyperlink ref="C63" r:id="rId58" xr:uid="{00000000-0004-0000-0900-0000C7000000}"/>
+    <hyperlink ref="C61" r:id="rId59" xr:uid="{00000000-0004-0000-0900-0000C6000000}"/>
+    <hyperlink ref="C62" r:id="rId60" xr:uid="{00000000-0004-0000-0900-0000C5000000}"/>
+    <hyperlink ref="C60" r:id="rId61" xr:uid="{00000000-0004-0000-0900-0000C4000000}"/>
+    <hyperlink ref="C225" r:id="rId62" xr:uid="{00000000-0004-0000-0900-0000C3000000}"/>
+    <hyperlink ref="C223" r:id="rId63" xr:uid="{00000000-0004-0000-0900-0000C2000000}"/>
+    <hyperlink ref="C218" r:id="rId64" xr:uid="{00000000-0004-0000-0900-0000C1000000}"/>
+    <hyperlink ref="C216" r:id="rId65" xr:uid="{00000000-0004-0000-0900-0000C0000000}"/>
+    <hyperlink ref="C212" r:id="rId66" xr:uid="{00000000-0004-0000-0900-0000BF000000}"/>
+    <hyperlink ref="C199" r:id="rId67" xr:uid="{00000000-0004-0000-0900-0000BE000000}"/>
+    <hyperlink ref="C190" r:id="rId68" xr:uid="{00000000-0004-0000-0900-0000BD000000}"/>
+    <hyperlink ref="C180" r:id="rId69" xr:uid="{00000000-0004-0000-0900-0000BC000000}"/>
+    <hyperlink ref="C178" r:id="rId70" xr:uid="{00000000-0004-0000-0900-0000BB000000}"/>
+    <hyperlink ref="C171" r:id="rId71" xr:uid="{00000000-0004-0000-0900-0000BA000000}"/>
+    <hyperlink ref="C169" r:id="rId72" xr:uid="{00000000-0004-0000-0900-0000B9000000}"/>
+    <hyperlink ref="C156" r:id="rId73" xr:uid="{00000000-0004-0000-0900-0000B8000000}"/>
+    <hyperlink ref="C154" r:id="rId74" xr:uid="{00000000-0004-0000-0900-0000B7000000}"/>
+    <hyperlink ref="C151" r:id="rId75" xr:uid="{00000000-0004-0000-0900-0000B6000000}"/>
+    <hyperlink ref="C146" r:id="rId76" xr:uid="{00000000-0004-0000-0900-0000B5000000}"/>
+    <hyperlink ref="C139" r:id="rId77" xr:uid="{00000000-0004-0000-0900-0000B4000000}"/>
+    <hyperlink ref="C137" r:id="rId78" xr:uid="{00000000-0004-0000-0900-0000B3000000}"/>
+    <hyperlink ref="C128" r:id="rId79" xr:uid="{00000000-0004-0000-0900-0000B2000000}"/>
+    <hyperlink ref="C126" r:id="rId80" xr:uid="{00000000-0004-0000-0900-0000B1000000}"/>
+    <hyperlink ref="C102" r:id="rId81" xr:uid="{00000000-0004-0000-0900-0000B0000000}"/>
+    <hyperlink ref="C100" r:id="rId82" xr:uid="{00000000-0004-0000-0900-0000AF000000}"/>
+    <hyperlink ref="C93" r:id="rId83" xr:uid="{00000000-0004-0000-0900-0000AE000000}"/>
+    <hyperlink ref="C91" r:id="rId84" xr:uid="{00000000-0004-0000-0900-0000AD000000}"/>
+    <hyperlink ref="C87" r:id="rId85" xr:uid="{00000000-0004-0000-0900-0000AC000000}"/>
+    <hyperlink ref="C84" r:id="rId86" xr:uid="{00000000-0004-0000-0900-0000AB000000}"/>
+    <hyperlink ref="C82" r:id="rId87" xr:uid="{00000000-0004-0000-0900-0000AA000000}"/>
+    <hyperlink ref="C80" r:id="rId88" xr:uid="{00000000-0004-0000-0900-0000A9000000}"/>
+    <hyperlink ref="C78" r:id="rId89" xr:uid="{00000000-0004-0000-0900-0000A8000000}"/>
+    <hyperlink ref="C74" r:id="rId90" xr:uid="{00000000-0004-0000-0900-0000A7000000}"/>
+    <hyperlink ref="C68" r:id="rId91" xr:uid="{00000000-0004-0000-0900-0000A6000000}"/>
+    <hyperlink ref="C65" r:id="rId92" xr:uid="{00000000-0004-0000-0900-0000A5000000}"/>
+    <hyperlink ref="C59" r:id="rId93" xr:uid="{00000000-0004-0000-0900-0000A4000000}"/>
+    <hyperlink ref="C57" r:id="rId94" xr:uid="{00000000-0004-0000-0900-0000A3000000}"/>
+    <hyperlink ref="C242" r:id="rId95" xr:uid="{00000000-0004-0000-0900-0000A2000000}"/>
+    <hyperlink ref="C238" r:id="rId96" xr:uid="{00000000-0004-0000-0900-0000A1000000}"/>
+    <hyperlink ref="C243" r:id="rId97" xr:uid="{00000000-0004-0000-0900-0000A0000000}"/>
+    <hyperlink ref="C240" r:id="rId98" xr:uid="{00000000-0004-0000-0900-00009F000000}"/>
+    <hyperlink ref="C239" r:id="rId99" xr:uid="{00000000-0004-0000-0900-00009E000000}"/>
+    <hyperlink ref="C237" r:id="rId100" xr:uid="{00000000-0004-0000-0900-00009D000000}"/>
+    <hyperlink ref="C236" r:id="rId101" xr:uid="{00000000-0004-0000-0900-00009C000000}"/>
+    <hyperlink ref="C245" r:id="rId102" xr:uid="{00000000-0004-0000-0900-00009B000000}"/>
+    <hyperlink ref="C244" r:id="rId103" xr:uid="{00000000-0004-0000-0900-00009A000000}"/>
+    <hyperlink ref="C241" r:id="rId104" xr:uid="{00000000-0004-0000-0900-000099000000}"/>
+    <hyperlink ref="C213" r:id="rId105" xr:uid="{00000000-0004-0000-0900-000098000000}"/>
+    <hyperlink ref="C210" r:id="rId106" xr:uid="{00000000-0004-0000-0900-000097000000}"/>
+    <hyperlink ref="C208" r:id="rId107" xr:uid="{00000000-0004-0000-0900-000096000000}"/>
+    <hyperlink ref="C193" r:id="rId108" xr:uid="{00000000-0004-0000-0900-000095000000}"/>
+    <hyperlink ref="C174" r:id="rId109" xr:uid="{00000000-0004-0000-0900-000094000000}"/>
+    <hyperlink ref="C172" r:id="rId110" xr:uid="{00000000-0004-0000-0900-000093000000}"/>
+    <hyperlink ref="C167" r:id="rId111" xr:uid="{00000000-0004-0000-0900-000092000000}"/>
+    <hyperlink ref="C161" r:id="rId112" xr:uid="{00000000-0004-0000-0900-000091000000}"/>
+    <hyperlink ref="C155" r:id="rId113" xr:uid="{00000000-0004-0000-0900-000090000000}"/>
+    <hyperlink ref="C148" r:id="rId114" xr:uid="{00000000-0004-0000-0900-00008F000000}"/>
+    <hyperlink ref="C147" r:id="rId115" xr:uid="{00000000-0004-0000-0900-00008E000000}"/>
+    <hyperlink ref="C144" r:id="rId116" xr:uid="{00000000-0004-0000-0900-00008D000000}"/>
+    <hyperlink ref="C141" r:id="rId117" xr:uid="{00000000-0004-0000-0900-00008C000000}"/>
+    <hyperlink ref="C138" r:id="rId118" xr:uid="{00000000-0004-0000-0900-00008B000000}"/>
+    <hyperlink ref="C134" r:id="rId119" xr:uid="{00000000-0004-0000-0900-00008A000000}"/>
+    <hyperlink ref="C131" r:id="rId120" xr:uid="{00000000-0004-0000-0900-000089000000}"/>
+    <hyperlink ref="C127" r:id="rId121" xr:uid="{00000000-0004-0000-0900-000088000000}"/>
+    <hyperlink ref="C123" r:id="rId122" xr:uid="{00000000-0004-0000-0900-000087000000}"/>
+    <hyperlink ref="C121" r:id="rId123" xr:uid="{00000000-0004-0000-0900-000086000000}"/>
+    <hyperlink ref="C119" r:id="rId124" xr:uid="{00000000-0004-0000-0900-000085000000}"/>
+    <hyperlink ref="C115" r:id="rId125" xr:uid="{00000000-0004-0000-0900-000084000000}"/>
+    <hyperlink ref="C109" r:id="rId126" xr:uid="{00000000-0004-0000-0900-000083000000}"/>
+    <hyperlink ref="C104" r:id="rId127" xr:uid="{00000000-0004-0000-0900-000082000000}"/>
+    <hyperlink ref="C97" r:id="rId128" xr:uid="{00000000-0004-0000-0900-000081000000}"/>
+    <hyperlink ref="C79" r:id="rId129" xr:uid="{00000000-0004-0000-0900-000080000000}"/>
+    <hyperlink ref="C76" r:id="rId130" xr:uid="{00000000-0004-0000-0900-00007F000000}"/>
+    <hyperlink ref="C72" r:id="rId131" xr:uid="{00000000-0004-0000-0900-00007E000000}"/>
+    <hyperlink ref="C66" r:id="rId132" xr:uid="{00000000-0004-0000-0900-00007D000000}"/>
+    <hyperlink ref="C235" r:id="rId133" xr:uid="{00000000-0004-0000-0900-00007C000000}"/>
+    <hyperlink ref="C230" r:id="rId134" xr:uid="{00000000-0004-0000-0900-00007B000000}"/>
+    <hyperlink ref="C224" r:id="rId135" xr:uid="{00000000-0004-0000-0900-00007A000000}"/>
+    <hyperlink ref="C222" r:id="rId136" xr:uid="{00000000-0004-0000-0900-000079000000}"/>
+    <hyperlink ref="C220" r:id="rId137" xr:uid="{00000000-0004-0000-0900-000078000000}"/>
+    <hyperlink ref="C217" r:id="rId138" xr:uid="{00000000-0004-0000-0900-000077000000}"/>
+    <hyperlink ref="C215" r:id="rId139" xr:uid="{00000000-0004-0000-0900-000076000000}"/>
+    <hyperlink ref="C211" r:id="rId140" xr:uid="{00000000-0004-0000-0900-000074000000}"/>
+    <hyperlink ref="C209" r:id="rId141" xr:uid="{00000000-0004-0000-0900-000073000000}"/>
+    <hyperlink ref="C207" r:id="rId142" xr:uid="{00000000-0004-0000-0900-000072000000}"/>
+    <hyperlink ref="C205" r:id="rId143" xr:uid="{00000000-0004-0000-0900-000071000000}"/>
+    <hyperlink ref="C204" r:id="rId144" xr:uid="{00000000-0004-0000-0900-000070000000}"/>
+    <hyperlink ref="C198" r:id="rId145" xr:uid="{00000000-0004-0000-0900-00006F000000}"/>
+    <hyperlink ref="C197" r:id="rId146" xr:uid="{00000000-0004-0000-0900-00006E000000}"/>
+    <hyperlink ref="C196" r:id="rId147" xr:uid="{00000000-0004-0000-0900-00006D000000}"/>
+    <hyperlink ref="C189" r:id="rId148" xr:uid="{00000000-0004-0000-0900-00006C000000}"/>
+    <hyperlink ref="C187" r:id="rId149" xr:uid="{00000000-0004-0000-0900-00006B000000}"/>
+    <hyperlink ref="C185" r:id="rId150" xr:uid="{00000000-0004-0000-0900-00006A000000}"/>
+    <hyperlink ref="C182" r:id="rId151" xr:uid="{00000000-0004-0000-0900-000069000000}"/>
+    <hyperlink ref="C179" r:id="rId152" xr:uid="{00000000-0004-0000-0900-000068000000}"/>
+    <hyperlink ref="C177" r:id="rId153" xr:uid="{00000000-0004-0000-0900-000067000000}"/>
+    <hyperlink ref="C176" r:id="rId154" xr:uid="{00000000-0004-0000-0900-000066000000}"/>
+    <hyperlink ref="C175" r:id="rId155" xr:uid="{00000000-0004-0000-0900-000065000000}"/>
+    <hyperlink ref="C173" r:id="rId156" xr:uid="{00000000-0004-0000-0900-000064000000}"/>
+    <hyperlink ref="C170" r:id="rId157" xr:uid="{00000000-0004-0000-0900-000063000000}"/>
+    <hyperlink ref="C168" r:id="rId158" xr:uid="{00000000-0004-0000-0900-000062000000}"/>
+    <hyperlink ref="C166" r:id="rId159" xr:uid="{00000000-0004-0000-0900-000061000000}"/>
+    <hyperlink ref="C163" r:id="rId160" xr:uid="{00000000-0004-0000-0900-000060000000}"/>
+    <hyperlink ref="C159" r:id="rId161" xr:uid="{00000000-0004-0000-0900-00005F000000}"/>
+    <hyperlink ref="C158" r:id="rId162" xr:uid="{00000000-0004-0000-0900-00005E000000}"/>
+    <hyperlink ref="C157" r:id="rId163" xr:uid="{00000000-0004-0000-0900-00005D000000}"/>
+    <hyperlink ref="C153" r:id="rId164" xr:uid="{00000000-0004-0000-0900-00005C000000}"/>
+    <hyperlink ref="C150" r:id="rId165" xr:uid="{00000000-0004-0000-0900-00005B000000}"/>
+    <hyperlink ref="C145" r:id="rId166" xr:uid="{00000000-0004-0000-0900-00005A000000}"/>
+    <hyperlink ref="C143" r:id="rId167" xr:uid="{00000000-0004-0000-0900-000059000000}"/>
+    <hyperlink ref="C142" r:id="rId168" xr:uid="{00000000-0004-0000-0900-000058000000}"/>
+    <hyperlink ref="C140" r:id="rId169" xr:uid="{00000000-0004-0000-0900-000057000000}"/>
+    <hyperlink ref="C136" r:id="rId170" xr:uid="{00000000-0004-0000-0900-000056000000}"/>
+    <hyperlink ref="C135" r:id="rId171" xr:uid="{00000000-0004-0000-0900-000055000000}"/>
+    <hyperlink ref="C133" r:id="rId172" xr:uid="{00000000-0004-0000-0900-000054000000}"/>
+    <hyperlink ref="C130" r:id="rId173" xr:uid="{00000000-0004-0000-0900-000053000000}"/>
+    <hyperlink ref="C129" r:id="rId174" xr:uid="{00000000-0004-0000-0900-000052000000}"/>
+    <hyperlink ref="C124" r:id="rId175" xr:uid="{00000000-0004-0000-0900-000051000000}"/>
+    <hyperlink ref="C122" r:id="rId176" xr:uid="{00000000-0004-0000-0900-000050000000}"/>
+    <hyperlink ref="C120" r:id="rId177" xr:uid="{00000000-0004-0000-0900-00004F000000}"/>
+    <hyperlink ref="C118" r:id="rId178" xr:uid="{00000000-0004-0000-0900-00004E000000}"/>
+    <hyperlink ref="C116" r:id="rId179" xr:uid="{00000000-0004-0000-0900-00004D000000}"/>
+    <hyperlink ref="C114" r:id="rId180" xr:uid="{00000000-0004-0000-0900-00004C000000}"/>
+    <hyperlink ref="C110" r:id="rId181" xr:uid="{00000000-0004-0000-0900-00004B000000}"/>
+    <hyperlink ref="C107" r:id="rId182" xr:uid="{00000000-0004-0000-0900-00004A000000}"/>
+    <hyperlink ref="C106" r:id="rId183" xr:uid="{00000000-0004-0000-0900-000049000000}"/>
+    <hyperlink ref="C103" r:id="rId184" xr:uid="{00000000-0004-0000-0900-000048000000}"/>
+    <hyperlink ref="C101" r:id="rId185" xr:uid="{00000000-0004-0000-0900-000047000000}"/>
+    <hyperlink ref="C99" r:id="rId186" xr:uid="{00000000-0004-0000-0900-000046000000}"/>
+    <hyperlink ref="C94" r:id="rId187" xr:uid="{00000000-0004-0000-0900-000045000000}"/>
+    <hyperlink ref="C92" r:id="rId188" xr:uid="{00000000-0004-0000-0900-000044000000}"/>
+    <hyperlink ref="C90" r:id="rId189" xr:uid="{00000000-0004-0000-0900-000043000000}"/>
+    <hyperlink ref="C89" r:id="rId190" xr:uid="{00000000-0004-0000-0900-000042000000}"/>
+    <hyperlink ref="C86" r:id="rId191" xr:uid="{00000000-0004-0000-0900-000041000000}"/>
+    <hyperlink ref="C85" r:id="rId192" xr:uid="{00000000-0004-0000-0900-000040000000}"/>
+    <hyperlink ref="C83" r:id="rId193" xr:uid="{00000000-0004-0000-0900-00003F000000}"/>
+    <hyperlink ref="C81" r:id="rId194" xr:uid="{00000000-0004-0000-0900-00003E000000}"/>
+    <hyperlink ref="C77" r:id="rId195" xr:uid="{00000000-0004-0000-0900-00003D000000}"/>
+    <hyperlink ref="C75" r:id="rId196" xr:uid="{00000000-0004-0000-0900-00003C000000}"/>
+    <hyperlink ref="C73" r:id="rId197" xr:uid="{00000000-0004-0000-0900-00003B000000}"/>
+    <hyperlink ref="C71" r:id="rId198" xr:uid="{00000000-0004-0000-0900-00003A000000}"/>
+    <hyperlink ref="C67" r:id="rId199" display="https://stackoverflow.com/questions/2883140" xr:uid="{00000000-0004-0000-0900-000039000000}"/>
+    <hyperlink ref="C64" r:id="rId200" xr:uid="{00000000-0004-0000-0900-000038000000}"/>
+    <hyperlink ref="C58" r:id="rId201" xr:uid="{00000000-0004-0000-0900-000037000000}"/>
+    <hyperlink ref="C56" r:id="rId202" xr:uid="{00000000-0004-0000-0900-000036000000}"/>
+    <hyperlink ref="C36" r:id="rId203" xr:uid="{00000000-0004-0000-0900-000035000000}"/>
+    <hyperlink ref="C52" r:id="rId204" xr:uid="{00000000-0004-0000-0900-000034000000}"/>
+    <hyperlink ref="C20" r:id="rId205" xr:uid="{00000000-0004-0000-0900-000033000000}"/>
+    <hyperlink ref="C15" r:id="rId206" xr:uid="{00000000-0004-0000-0900-000032000000}"/>
+    <hyperlink ref="C14" r:id="rId207" xr:uid="{00000000-0004-0000-0900-000031000000}"/>
+    <hyperlink ref="C12" r:id="rId208" xr:uid="{00000000-0004-0000-0900-000030000000}"/>
+    <hyperlink ref="C9" r:id="rId209" xr:uid="{00000000-0004-0000-0900-00002F000000}"/>
+    <hyperlink ref="C8" r:id="rId210" xr:uid="{00000000-0004-0000-0900-00002E000000}"/>
+    <hyperlink ref="C7" r:id="rId211" xr:uid="{00000000-0004-0000-0900-00002D000000}"/>
+    <hyperlink ref="C6" r:id="rId212" xr:uid="{00000000-0004-0000-0900-00002C000000}"/>
+    <hyperlink ref="C47" r:id="rId213" xr:uid="{00000000-0004-0000-0900-00002B000000}"/>
+    <hyperlink ref="C28" r:id="rId214" xr:uid="{00000000-0004-0000-0900-00002A000000}"/>
+    <hyperlink ref="C27" r:id="rId215" xr:uid="{00000000-0004-0000-0900-000029000000}"/>
+    <hyperlink ref="C35" r:id="rId216" xr:uid="{00000000-0004-0000-0900-000028000000}"/>
+    <hyperlink ref="C34" r:id="rId217" xr:uid="{00000000-0004-0000-0900-000027000000}"/>
+    <hyperlink ref="C33" r:id="rId218" xr:uid="{00000000-0004-0000-0900-000026000000}"/>
+    <hyperlink ref="C55" r:id="rId219" xr:uid="{00000000-0004-0000-0900-000025000000}"/>
+    <hyperlink ref="C53" r:id="rId220" xr:uid="{00000000-0004-0000-0900-000024000000}"/>
+    <hyperlink ref="C49" r:id="rId221" xr:uid="{00000000-0004-0000-0900-000023000000}"/>
+    <hyperlink ref="C44" r:id="rId222" xr:uid="{00000000-0004-0000-0900-000022000000}"/>
+    <hyperlink ref="C32" r:id="rId223" xr:uid="{00000000-0004-0000-0900-000021000000}"/>
+    <hyperlink ref="C25" r:id="rId224" xr:uid="{00000000-0004-0000-0900-000020000000}"/>
+    <hyperlink ref="C24" r:id="rId225" xr:uid="{00000000-0004-0000-0900-00001F000000}"/>
+    <hyperlink ref="C22" r:id="rId226" xr:uid="{00000000-0004-0000-0900-00001E000000}"/>
+    <hyperlink ref="C17" r:id="rId227" xr:uid="{00000000-0004-0000-0900-00001D000000}"/>
+    <hyperlink ref="C23" r:id="rId228" xr:uid="{00000000-0004-0000-0900-00001C000000}"/>
+    <hyperlink ref="C5" r:id="rId229" xr:uid="{00000000-0004-0000-0900-00001B000000}"/>
+    <hyperlink ref="C4" r:id="rId230" xr:uid="{00000000-0004-0000-0900-00001A000000}"/>
+    <hyperlink ref="C54" r:id="rId231" xr:uid="{00000000-0004-0000-0900-000019000000}"/>
+    <hyperlink ref="C51" r:id="rId232" xr:uid="{00000000-0004-0000-0900-000018000000}"/>
+    <hyperlink ref="C48" r:id="rId233" xr:uid="{00000000-0004-0000-0900-000016000000}"/>
+    <hyperlink ref="C46" r:id="rId234" xr:uid="{00000000-0004-0000-0900-000015000000}"/>
+    <hyperlink ref="C45" r:id="rId235" xr:uid="{00000000-0004-0000-0900-000014000000}"/>
+    <hyperlink ref="C43" r:id="rId236" xr:uid="{00000000-0004-0000-0900-000013000000}"/>
+    <hyperlink ref="C42" r:id="rId237" xr:uid="{00000000-0004-0000-0900-000012000000}"/>
+    <hyperlink ref="C41" r:id="rId238" xr:uid="{00000000-0004-0000-0900-000011000000}"/>
+    <hyperlink ref="C40" r:id="rId239" xr:uid="{00000000-0004-0000-0900-000010000000}"/>
+    <hyperlink ref="C39" r:id="rId240" xr:uid="{00000000-0004-0000-0900-00000F000000}"/>
+    <hyperlink ref="C38" r:id="rId241" xr:uid="{00000000-0004-0000-0900-00000E000000}"/>
+    <hyperlink ref="C31" r:id="rId242" xr:uid="{00000000-0004-0000-0900-00000D000000}"/>
+    <hyperlink ref="C30" r:id="rId243" xr:uid="{00000000-0004-0000-0900-00000C000000}"/>
+    <hyperlink ref="C29" r:id="rId244" xr:uid="{00000000-0004-0000-0900-00000B000000}"/>
+    <hyperlink ref="C19" r:id="rId245" xr:uid="{00000000-0004-0000-0900-00000A000000}"/>
+    <hyperlink ref="C18" r:id="rId246" xr:uid="{00000000-0004-0000-0900-000009000000}"/>
+    <hyperlink ref="C16" r:id="rId247" xr:uid="{00000000-0004-0000-0900-000008000000}"/>
+    <hyperlink ref="C13" r:id="rId248" xr:uid="{00000000-0004-0000-0900-000007000000}"/>
+    <hyperlink ref="C11" r:id="rId249" xr:uid="{00000000-0004-0000-0900-000006000000}"/>
+    <hyperlink ref="C10" r:id="rId250" xr:uid="{00000000-0004-0000-0900-000005000000}"/>
+    <hyperlink ref="C3" r:id="rId251" xr:uid="{00000000-0004-0000-0900-000004000000}"/>
+    <hyperlink ref="C2" r:id="rId252" xr:uid="{00000000-0004-0000-0900-000003000000}"/>
+    <hyperlink ref="C50" r:id="rId253" xr:uid="{00000000-0004-0000-0900-000002000000}"/>
+    <hyperlink ref="C26" r:id="rId254" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
+    <hyperlink ref="C21" r:id="rId255" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId258"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId256"/>
 </worksheet>
 </file>
 

--- a/question_select/classification_of_knowledge_types.xlsx
+++ b/question_select/classification_of_knowledge_types.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20349"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20356"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E615C9AB-9A07-44B1-A78F-0CB020F37CFC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F06D2FD-1DCD-42D3-A840-D50493ECFAEC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3805,11 +3805,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:I258"/>
+  <dimension ref="A1:I256"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A244" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F251" sqref="F251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3819,8 +3819,8 @@
     <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
     <col min="4" max="4" width="7.875" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="56.75" customWidth="1"/>
-    <col min="7" max="7" width="29.75" customWidth="1"/>
+    <col min="6" max="6" width="79.25" customWidth="1"/>
+    <col min="7" max="7" width="43.125" customWidth="1"/>
     <col min="9" max="9" width="42.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3890,7 +3890,7 @@
         <v>821</v>
       </c>
       <c r="G3" t="s">
-        <v>868</v>
+        <v>880</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -4993,6 +4993,9 @@
       <c r="F51" t="s">
         <v>695</v>
       </c>
+      <c r="G51" t="s">
+        <v>868</v>
+      </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
@@ -5106,7 +5109,7 @@
         <v>167</v>
       </c>
       <c r="G56" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -5152,7 +5155,7 @@
         <v>173</v>
       </c>
       <c r="G58" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -5198,7 +5201,7 @@
         <v>827</v>
       </c>
       <c r="G60" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -5244,7 +5247,7 @@
         <v>185</v>
       </c>
       <c r="G62" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
@@ -5290,7 +5293,7 @@
         <v>190</v>
       </c>
       <c r="G64" t="s">
-        <v>868</v>
+        <v>881</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -5336,7 +5339,7 @@
         <v>196</v>
       </c>
       <c r="G66" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
@@ -5359,7 +5362,7 @@
         <v>208</v>
       </c>
       <c r="G67" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -5405,7 +5408,7 @@
         <v>216</v>
       </c>
       <c r="G69" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -5451,7 +5454,7 @@
         <v>857</v>
       </c>
       <c r="G71" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -5474,7 +5477,7 @@
         <v>828</v>
       </c>
       <c r="G72" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -5497,7 +5500,7 @@
         <v>226</v>
       </c>
       <c r="G73" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -5566,7 +5569,7 @@
         <v>829</v>
       </c>
       <c r="G76" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
@@ -5589,7 +5592,7 @@
         <v>239</v>
       </c>
       <c r="G77" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
@@ -5635,7 +5638,7 @@
         <v>244</v>
       </c>
       <c r="G79" t="s">
-        <v>870</v>
+        <v>880</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
@@ -5681,7 +5684,7 @@
         <v>248</v>
       </c>
       <c r="G81" t="s">
-        <v>880</v>
+        <v>868</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
@@ -5842,7 +5845,7 @@
         <v>268</v>
       </c>
       <c r="G88" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
@@ -5888,7 +5891,7 @@
         <v>863</v>
       </c>
       <c r="G90" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
@@ -5911,7 +5914,7 @@
         <v>864</v>
       </c>
       <c r="G91" t="s">
-        <v>870</v>
+        <v>881</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
@@ -5934,7 +5937,7 @@
         <v>283</v>
       </c>
       <c r="G92" t="s">
-        <v>881</v>
+        <v>868</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
@@ -5980,7 +5983,7 @@
         <v>802</v>
       </c>
       <c r="G94" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
@@ -6003,7 +6006,7 @@
         <v>803</v>
       </c>
       <c r="G95" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
@@ -6026,7 +6029,7 @@
         <v>804</v>
       </c>
       <c r="G96" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
@@ -6049,7 +6052,7 @@
         <v>290</v>
       </c>
       <c r="G97" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
@@ -6072,7 +6075,7 @@
         <v>292</v>
       </c>
       <c r="G98" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
@@ -6095,7 +6098,7 @@
         <v>296</v>
       </c>
       <c r="G99" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
@@ -6141,7 +6144,7 @@
         <v>832</v>
       </c>
       <c r="G101" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
@@ -6210,7 +6213,7 @@
         <v>310</v>
       </c>
       <c r="G104" t="s">
-        <v>868</v>
+        <v>881</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
@@ -6233,7 +6236,7 @@
         <v>312</v>
       </c>
       <c r="G105" t="s">
-        <v>881</v>
+        <v>868</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
@@ -6256,7 +6259,7 @@
         <v>833</v>
       </c>
       <c r="G106" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
@@ -6348,7 +6351,7 @@
         <v>323</v>
       </c>
       <c r="G110" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
@@ -6440,7 +6443,7 @@
         <v>330</v>
       </c>
       <c r="G114" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
@@ -6486,7 +6489,7 @@
         <v>805</v>
       </c>
       <c r="G116" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
@@ -6509,7 +6512,7 @@
         <v>858</v>
       </c>
       <c r="G117" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
@@ -6532,7 +6535,7 @@
         <v>342</v>
       </c>
       <c r="G118" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
@@ -6555,7 +6558,7 @@
         <v>715</v>
       </c>
       <c r="G119" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
@@ -6578,7 +6581,7 @@
         <v>806</v>
       </c>
       <c r="G120" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
@@ -6624,7 +6627,7 @@
         <v>835</v>
       </c>
       <c r="G122" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
@@ -6647,7 +6650,7 @@
         <v>360</v>
       </c>
       <c r="G123" t="s">
-        <v>869</v>
+        <v>880</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
@@ -6670,7 +6673,7 @@
         <v>363</v>
       </c>
       <c r="G124" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
@@ -6693,7 +6696,7 @@
         <v>366</v>
       </c>
       <c r="G125" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
@@ -6762,7 +6765,7 @@
         <v>836</v>
       </c>
       <c r="G128" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
@@ -6785,7 +6788,7 @@
         <v>837</v>
       </c>
       <c r="G129" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
@@ -6808,7 +6811,7 @@
         <v>383</v>
       </c>
       <c r="G130" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
@@ -6831,7 +6834,7 @@
         <v>855</v>
       </c>
       <c r="G131" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
@@ -6854,7 +6857,7 @@
         <v>810</v>
       </c>
       <c r="G132" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
@@ -6900,7 +6903,7 @@
         <v>856</v>
       </c>
       <c r="G134" t="s">
-        <v>868</v>
+        <v>881</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
@@ -6923,7 +6926,7 @@
         <v>394</v>
       </c>
       <c r="G135" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
@@ -6946,7 +6949,7 @@
         <v>398</v>
       </c>
       <c r="G136" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
@@ -6969,7 +6972,7 @@
         <v>401</v>
       </c>
       <c r="G137" t="s">
-        <v>868</v>
+        <v>881</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
@@ -6992,7 +6995,7 @@
         <v>403</v>
       </c>
       <c r="G138" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
@@ -7038,7 +7041,7 @@
         <v>407</v>
       </c>
       <c r="G140" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
@@ -7084,7 +7087,7 @@
         <v>413</v>
       </c>
       <c r="G142" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
@@ -7107,7 +7110,7 @@
         <v>417</v>
       </c>
       <c r="G143" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
@@ -7130,7 +7133,7 @@
         <v>725</v>
       </c>
       <c r="G144" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
@@ -7153,7 +7156,7 @@
         <v>421</v>
       </c>
       <c r="G145" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
@@ -7245,7 +7248,7 @@
         <v>430</v>
       </c>
       <c r="G149" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
@@ -7268,7 +7271,7 @@
         <v>432</v>
       </c>
       <c r="G150" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
@@ -7314,7 +7317,7 @@
         <v>838</v>
       </c>
       <c r="G152" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
@@ -7337,7 +7340,7 @@
         <v>439</v>
       </c>
       <c r="G153" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
@@ -7383,7 +7386,7 @@
         <v>441</v>
       </c>
       <c r="G155" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
@@ -7429,7 +7432,7 @@
         <v>446</v>
       </c>
       <c r="G157" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
@@ -7475,7 +7478,7 @@
         <v>453</v>
       </c>
       <c r="G159" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
@@ -7498,7 +7501,7 @@
         <v>455</v>
       </c>
       <c r="G160" t="s">
-        <v>868</v>
+        <v>881</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
@@ -7521,7 +7524,7 @@
         <v>878</v>
       </c>
       <c r="G161" t="s">
-        <v>881</v>
+        <v>868</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
@@ -7544,7 +7547,7 @@
         <v>458</v>
       </c>
       <c r="G162" t="s">
-        <v>868</v>
+        <v>880</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
@@ -7567,7 +7570,7 @@
         <v>854</v>
       </c>
       <c r="G163" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
@@ -7590,7 +7593,7 @@
         <v>866</v>
       </c>
       <c r="G164" t="s">
-        <v>871</v>
+        <v>881</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
@@ -7613,7 +7616,7 @@
         <v>865</v>
       </c>
       <c r="G165" t="s">
-        <v>881</v>
+        <v>868</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
@@ -7636,7 +7639,7 @@
         <v>468</v>
       </c>
       <c r="G166" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
@@ -7659,7 +7662,7 @@
         <v>859</v>
       </c>
       <c r="G167" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
@@ -7682,7 +7685,7 @@
         <v>852</v>
       </c>
       <c r="G168" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
@@ -7728,7 +7731,7 @@
         <v>478</v>
       </c>
       <c r="G170" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
@@ -7774,7 +7777,7 @@
         <v>482</v>
       </c>
       <c r="G172" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
@@ -7797,7 +7800,7 @@
         <v>485</v>
       </c>
       <c r="G173" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
@@ -7843,7 +7846,7 @@
         <v>731</v>
       </c>
       <c r="G175" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
@@ -7866,7 +7869,7 @@
         <v>840</v>
       </c>
       <c r="G176" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
@@ -7889,7 +7892,7 @@
         <v>497</v>
       </c>
       <c r="G177" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
@@ -7935,7 +7938,7 @@
         <v>851</v>
       </c>
       <c r="G179" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
@@ -7981,7 +7984,7 @@
         <v>507</v>
       </c>
       <c r="G181" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
@@ -8073,7 +8076,7 @@
         <v>516</v>
       </c>
       <c r="G185" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
@@ -8096,7 +8099,7 @@
         <v>518</v>
       </c>
       <c r="G186" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
@@ -8119,7 +8122,7 @@
         <v>522</v>
       </c>
       <c r="G187" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
@@ -8142,7 +8145,7 @@
         <v>525</v>
       </c>
       <c r="G188" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
@@ -8165,7 +8168,7 @@
         <v>841</v>
       </c>
       <c r="G189" t="s">
-        <v>873</v>
+        <v>881</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
@@ -8188,7 +8191,7 @@
         <v>783</v>
       </c>
       <c r="G190" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
@@ -8211,7 +8214,7 @@
         <v>536</v>
       </c>
       <c r="G191" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
@@ -8257,7 +8260,7 @@
         <v>784</v>
       </c>
       <c r="G193" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
@@ -8280,7 +8283,7 @@
         <v>848</v>
       </c>
       <c r="G194" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
@@ -8326,7 +8329,7 @@
         <v>785</v>
       </c>
       <c r="G196" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
@@ -8372,7 +8375,7 @@
         <v>564</v>
       </c>
       <c r="G198" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
@@ -8418,7 +8421,7 @@
         <v>567</v>
       </c>
       <c r="G200" t="s">
-        <v>873</v>
+        <v>881</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
@@ -8441,7 +8444,7 @@
         <v>569</v>
       </c>
       <c r="G201" t="s">
-        <v>881</v>
+        <v>868</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
@@ -8464,7 +8467,7 @@
         <v>572</v>
       </c>
       <c r="G202" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
@@ -8487,7 +8490,7 @@
         <v>574</v>
       </c>
       <c r="G203" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
@@ -8556,7 +8559,7 @@
         <v>874</v>
       </c>
       <c r="G206" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
@@ -8579,7 +8582,7 @@
         <v>586</v>
       </c>
       <c r="G207" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
@@ -8625,7 +8628,7 @@
         <v>800</v>
       </c>
       <c r="G209" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
@@ -8648,7 +8651,7 @@
         <v>842</v>
       </c>
       <c r="G210" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
@@ -8671,7 +8674,7 @@
         <v>787</v>
       </c>
       <c r="G211" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
@@ -8763,7 +8766,7 @@
         <v>809</v>
       </c>
       <c r="G215" t="s">
-        <v>868</v>
+        <v>880</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.2">
@@ -8785,6 +8788,9 @@
       <c r="F216" t="s">
         <v>609</v>
       </c>
+      <c r="G216" t="s">
+        <v>880</v>
+      </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217">
@@ -8806,7 +8812,7 @@
         <v>613</v>
       </c>
       <c r="G217" t="s">
-        <v>880</v>
+        <v>868</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.2">
@@ -8829,7 +8835,7 @@
         <v>615</v>
       </c>
       <c r="G218" t="s">
-        <v>880</v>
+        <v>868</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.2">
@@ -8852,7 +8858,7 @@
         <v>619</v>
       </c>
       <c r="G219" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.2">
@@ -8875,7 +8881,7 @@
         <v>621</v>
       </c>
       <c r="G220" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.2">
@@ -8898,7 +8904,7 @@
         <v>623</v>
       </c>
       <c r="G221" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.2">
@@ -8921,7 +8927,7 @@
         <v>626</v>
       </c>
       <c r="G222" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.2">
@@ -8944,7 +8950,7 @@
         <v>628</v>
       </c>
       <c r="G223" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.2">
@@ -8967,7 +8973,7 @@
         <v>631</v>
       </c>
       <c r="G224" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.2">
@@ -8990,7 +8996,7 @@
         <v>633</v>
       </c>
       <c r="G225" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.2">
@@ -9013,7 +9019,7 @@
         <v>640</v>
       </c>
       <c r="G226" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.2">
@@ -9082,7 +9088,7 @@
         <v>789</v>
       </c>
       <c r="G229" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.2">
@@ -9105,7 +9111,7 @@
         <v>843</v>
       </c>
       <c r="G230" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.2">
@@ -9151,7 +9157,7 @@
         <v>650</v>
       </c>
       <c r="G232" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.2">
@@ -9174,7 +9180,7 @@
         <v>847</v>
       </c>
       <c r="G233" t="s">
-        <v>873</v>
+        <v>881</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.2">
@@ -9197,7 +9203,7 @@
         <v>844</v>
       </c>
       <c r="G234" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.2">
@@ -9220,7 +9226,7 @@
         <v>656</v>
       </c>
       <c r="G235" t="s">
-        <v>881</v>
+        <v>868</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.2">
@@ -9243,7 +9249,7 @@
         <v>659</v>
       </c>
       <c r="G236" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.2">
@@ -9266,7 +9272,7 @@
         <v>846</v>
       </c>
       <c r="G237" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.2">
@@ -9289,7 +9295,7 @@
         <v>662</v>
       </c>
       <c r="G238" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.2">
@@ -9312,7 +9318,7 @@
         <v>664</v>
       </c>
       <c r="G239" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.2">
@@ -9358,7 +9364,7 @@
         <v>668</v>
       </c>
       <c r="G241" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.2">
@@ -9381,7 +9387,7 @@
         <v>669</v>
       </c>
       <c r="G242" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.2">
@@ -9404,7 +9410,7 @@
         <v>671</v>
       </c>
       <c r="G243" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.2">
@@ -9427,7 +9433,7 @@
         <v>672</v>
       </c>
       <c r="G244" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.2">
@@ -9473,7 +9479,7 @@
         <v>752</v>
       </c>
       <c r="G246" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.2">
@@ -9496,7 +9502,7 @@
         <v>753</v>
       </c>
       <c r="G247" t="s">
-        <v>868</v>
+        <v>880</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.2">
@@ -9519,7 +9525,7 @@
         <v>761</v>
       </c>
       <c r="G248" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="I248" s="14"/>
     </row>
@@ -9543,7 +9549,7 @@
         <v>762</v>
       </c>
       <c r="G249" t="s">
-        <v>880</v>
+        <v>868</v>
       </c>
       <c r="I249" s="14"/>
     </row>
@@ -9615,7 +9621,7 @@
         <v>791</v>
       </c>
       <c r="G252" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="I252" s="15"/>
     </row>
@@ -9710,21 +9716,10 @@
         <v>796</v>
       </c>
       <c r="G256" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="257" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G257" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="258" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G258" t="s">
         <v>873</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G258" xr:uid="{EAF680DE-1151-4AD4-9FAA-DA8D6B020224}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C37" r:id="rId1" xr:uid="{00000000-0004-0000-0900-000000010000}"/>
